--- a/Design/맵생성규칙기획서.xlsx
+++ b/Design/맵생성규칙기획서.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9685A-4E0A-4B03-B549-F4F62DF8E904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDF91F9-64B7-4724-9BA7-8F76C883DDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
     <sheet name="Tile" sheetId="2" r:id="rId2"/>
     <sheet name="Map" sheetId="3" r:id="rId3"/>
     <sheet name="Pattern" sheetId="4" r:id="rId4"/>
+    <sheet name="개발일정" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
   <si>
     <t>Version Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기믹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마을</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타일별 규칙 &amp; 구현기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평지는 타워 설치 가능 여부에 관여한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마을 오브젝트는 체력을 가지고 있으며 쉴드,방어력이 존재하지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>난이도 조정 측면에서 조정가능 하도록 체력을 조절한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,38 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵 기믹 요소가 배치된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵은 타일 단위로 구성된다. 타일은 아래의 구성을 따른다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기믹 타일은 맵의 확장 시점에 랜덤으로 배치된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기믹 타일의 배치는 공격로, 평지 중에 기믹의 종류에 따라 설치된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평지 위로는 자원, 장애물 등이 배치되며 둘 다 제거가 가능하도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애물의 경우 제거 가능 여부를 테스트를 통해 재결정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평지 위로는 타워 버프, 디버프 기믹이 배치 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격로 위로는 몬스터 버프,디버프 기믹이 배치 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>색깔 구분을 통해 패턴을 디자인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵의 생성은 아래의 규칙을 따른다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2. '확장'을 수행하면 공격로의 방향으로 맵이 확장되며 랜덤으로 맵이 구성된다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,15 +199,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵 생성 흐름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평지 클래스에 타워 설치 여부를 구분하도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 생성 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -423,12 +368,208 @@
     <t>문제점 : 확장예정의 겹침 여부를 어떻게 판단할 것인가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.8.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 맵 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 타일 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 맵 생성 흐름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Tile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.8.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 패턴 ID 결정 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 패턴 구성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2타일별 규칙 &amp; 구현기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 타입별 규칙 &amp; 구현기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을에는 체력이 존재하여 이를 화면에 표시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1맵 생성 흐름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요 추가, 기믹 타일 타입 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 맵기믹의 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 맵 기믹의 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 패턴 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 개발 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 맵 패턴 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 기믹은 각 타일의 위에 기믹이 설치되는 것으로 취급한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;보류&gt; -&gt; 방향 정보에 대한 부분은 다른 방안을 생각해볼것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 맵 생성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 생성 알고리즘 제작&amp;적용(기본)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용 맵 패턴 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 생성 알고리즘 제작&amp;적용(응용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 기믹 요소 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본맵 패턴 제작
+응용맵 패턴 제작
+맵 생성 알고리즘 제작&amp;적용(기본)
+맵 생성 알고리즘 제작&amp;적용(응용)
+맵 기믹 요소 제작
+맵 기믹 생성 알고리즘 제작&amp;적용
+아트 요소 적용(에셋,사운드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 기믹 생성 알고리즘 제작&amp;적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트 요소 적용(에셋,사운드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 일정 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,13 +582,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,8 +599,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,31 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,18 +658,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -786,81 +933,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -916,72 +988,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -991,29 +1128,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1051,7 +1233,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="텍스트, 쇼지, 낱말맞추기게임이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9123F8-623E-24F6-1441-9DD5B13CDBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,7 +1277,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="텍스트, 쇼지, 건물이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AA31D4-BE5C-29D0-C3B2-0AFF27BE9A87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1321,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828AEC30-765D-6168-987F-55D349CFD8C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1183,7 +1365,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BAAD40C-EEC3-1695-8AF5-92B1F3F44C53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1227,7 +1409,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16EBD579-0511-8CEB-7BE8-0F79A367504F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1453,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658CB67D-A2BF-C4DC-E5CA-A6EBCBE7570C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1497,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB171B70-BAD5-FF4A-1AA9-B954BD1A3C26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1558,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>167640</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>527</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1386,7 +1568,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5B7C9D-0D8B-5F41-BFB0-B77DB92751E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1407,23 +1589,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1444,7 +1613,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>510540</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>33457</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1454,7 +1623,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5FEF5C8-694D-525B-5D51-0DD65E494E29}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1475,23 +1644,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1512,7 +1668,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>396240</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>58532</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1522,7 +1678,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91678E91-498E-FBA7-A7A2-BF308330C6AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1543,23 +1699,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1585,7 +1728,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6325BF26-CE82-5944-C289-F37C60D36EBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1794,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1DFBC6-6343-4997-BB31-C90B8DD8E2BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,22 +1845,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>150524</xdr:rowOff>
+      <xdr:rowOff>66704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A01520-A416-A711-5DCE-A32EC49B4966}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1883,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6217920" y="1697384"/>
+          <a:off x="6309360" y="1613564"/>
           <a:ext cx="4511040" cy="3385156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2031,66 +2174,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.296875" customWidth="1"/>
     <col min="2" max="2" width="31.796875" customWidth="1"/>
+    <col min="4" max="4" width="2.5" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="15"/>
+      <c r="F1" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="58"/>
+      <c r="F3" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="63"/>
+      <c r="G4" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="67"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="F10" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="67"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="67"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="F14" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="44"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F16" s="43"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="F17" s="43"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="6:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425F926-11E9-47C5-A408-0AEA8D0E58FF}">
-  <dimension ref="B1:Q24"/>
+  <dimension ref="B2:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2112,454 +2448,335 @@
     <col min="6" max="6" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" s="8" customFormat="1" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="3"/>
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="5"/>
+      <c r="O7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="6"/>
+      <c r="O8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="G9" s="2"/>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="6"/>
-      <c r="O5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="8"/>
-      <c r="O6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="10"/>
-      <c r="O7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="11">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="9"/>
-      <c r="O8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="G9" s="4"/>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="41"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="36"/>
-      <c r="C14" s="31" t="s">
-        <v>31</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="31" t="s">
-        <v>55</v>
-      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
-      <c r="O14" s="42"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B15" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="28"/>
+      <c r="O14" s="33"/>
+    </row>
+    <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="22"/>
+      <c r="C15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
-      <c r="O15" s="34"/>
-    </row>
-    <row r="16" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="36"/>
-      <c r="C16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="31" t="s">
-        <v>38</v>
-      </c>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
-      <c r="O16" s="42"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="O16" s="33"/>
+    </row>
+    <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="22"/>
+      <c r="C17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="28"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
-      <c r="O17" s="34"/>
+      <c r="O17" s="30"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="37"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B19" s="23"/>
+      <c r="C19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36"/>
+    </row>
+    <row r="20" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="22"/>
+      <c r="C20" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
-    </row>
-    <row r="19" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="36"/>
-      <c r="C19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="46"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="47"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="47"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="39"/>
-      <c r="C23" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="47"/>
-    </row>
-    <row r="24" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="40"/>
-      <c r="C24" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="48"/>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B19"/>
+  <mergeCells count="23">
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="F8:K8"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="J13:O13"/>
     <mergeCell ref="J15:O15"/>
     <mergeCell ref="J16:O16"/>
     <mergeCell ref="J17:O17"/>
     <mergeCell ref="J18:O18"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="J19:O19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2570,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E633EF07-05DE-4561-AB1C-45A00CBE1A49}">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="P69" sqref="P69"/>
+    <sheetView showGridLines="0" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2579,562 +2796,558 @@
     <col min="1" max="1" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
+    <row r="1" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>54</v>
+      <c r="B2" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="J5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="J20" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="R20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="J21" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="12" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="2:18" s="15" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B26" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" s="18" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="2:18" s="50" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B29" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B31" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B29" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B30" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B31" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B32" s="49"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B33" s="49"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="B33" s="14"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" s="49"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="B34" s="14"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B35" s="49"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="B35" s="14"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="49"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="B36" s="14"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B37" s="49"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="B37" s="14"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" s="49"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="B38" s="14"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B39" s="49"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="B39" s="14"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B40" s="49"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="B40" s="14"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B41" s="49"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="B41" s="14"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="B42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="B44" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" s="49"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="B46" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="49"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="G48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="N48" s="4" t="s">
-        <v>84</v>
+      <c r="B48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="N48" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B59" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="B59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
+      <c r="A63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
       <c r="N63" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N64" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B72" s="4" t="s">
-        <v>81</v>
+      <c r="B72" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3227,10 +3440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55029166-0F3A-417D-88E0-E2B393473FBD}">
-  <dimension ref="B3:K7"/>
+  <dimension ref="B3:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3238,37 +3451,596 @@
     <col min="1" max="1" width="2.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="50"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="53"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="53"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="53"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="53"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="53"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="53"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="53"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="53"/>
+    </row>
+    <row r="17" spans="11:18" x14ac:dyDescent="0.4">
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="53"/>
+    </row>
+    <row r="18" spans="11:18" x14ac:dyDescent="0.4">
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="53"/>
+    </row>
+    <row r="19" spans="11:18" x14ac:dyDescent="0.4">
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="53"/>
+    </row>
+    <row r="20" spans="11:18" x14ac:dyDescent="0.4">
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="53"/>
+    </row>
+    <row r="21" spans="11:18" x14ac:dyDescent="0.4">
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="53"/>
+    </row>
+    <row r="22" spans="11:18" x14ac:dyDescent="0.4">
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="53"/>
+    </row>
+    <row r="23" spans="11:18" x14ac:dyDescent="0.4">
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="53"/>
+    </row>
+    <row r="24" spans="11:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K24" s="54"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFA2812-7629-4D41-B60B-81D3901BF4BE}">
+  <dimension ref="B2:N26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="13">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13">
+        <v>23</v>
+      </c>
+      <c r="E4" s="13">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13">
+        <v>25</v>
+      </c>
+      <c r="G4" s="13">
+        <v>26</v>
+      </c>
+      <c r="H4" s="13">
+        <v>27</v>
+      </c>
+      <c r="I4" s="13">
+        <v>28</v>
+      </c>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="13">
+        <v>29</v>
+      </c>
+      <c r="D5" s="13">
+        <v>30</v>
+      </c>
+      <c r="E5" s="13">
+        <v>31</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3</v>
+      </c>
+      <c r="I5" s="13">
+        <v>4</v>
+      </c>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13">
+        <v>8</v>
+      </c>
+      <c r="G6" s="69">
+        <v>9</v>
+      </c>
+      <c r="H6" s="69">
+        <v>10</v>
+      </c>
+      <c r="I6" s="69">
+        <v>11</v>
+      </c>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="70"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="71">
+        <v>22</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="70"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B10" s="71">
+        <v>23</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="70"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="71">
+        <v>24</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="70"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B12" s="71">
+        <v>25</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="70"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="71">
+        <v>26</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="70"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B14" s="71">
+        <v>27</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="70"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="71">
+        <v>28</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="70"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="71">
+        <v>29</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="70"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="71">
+        <v>30</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="70"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="71">
+        <v>31</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="70"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="71">
+        <v>1</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="70"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="71">
+        <v>2</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="70"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="71">
+        <v>3</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="70"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="71">
+        <v>4</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="70"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="71">
+        <v>5</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="70"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="71">
+        <v>6</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="70"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="71">
+        <v>7</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="70"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="71">
+        <v>8</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:N10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/맵생성규칙기획서.xlsx
+++ b/Design/맵생성규칙기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDF91F9-64B7-4724-9BA7-8F76C883DDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A49B131-2668-4B32-86AF-2DCA2AFAD64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
   <si>
     <t>Version Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>TileType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,133 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵 패턴 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">기본형은 맵 패턴의 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>연결방향</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>을 결정한다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">맵은 이전맵, 기준맵, 확장예정으로 구분하여 판단한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확장예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준맵의 바로 이전에 생성한 맵이다. 반드시 기준맵과 길이 연결되어있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성 지점을 판단하는 기준이 되는 맵이다. 방향 정보를 제공한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나) 확장예정에 맵이 이미 존재하는 경우 확장을 멈춘다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준점의 방향정보를 토대로 패턴중에서 공격로가 연결되도록 선택하여 확장을 예정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵의 생성은 맵 패턴을 다수 정해두고 그 안에서 무작위로 선택 한다. (맵 패턴 규칙 아래에 후술)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확장 예정은 아래의 분기에 따라 기준점으로 바뀌거나 취소하고 재생성 시도한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가) 확장예정에 맵이 존재하지 않는 경우 확장을 1차 확정하고 패턴을 선택한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준맵의 방향 정보는 이전맵의 기본ID 와 AND 연산을 통해 결정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본ID는 아래와 같이 4비트를 활용해 설정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">맵 패턴은 기본형과 응용형으로 나누어 Pattern ID를 결정한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비트를 활용하여 구현의 편의성과 패턴의 관리를 용이하게 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)분기점 없이 공격로가 이어져 더 이상 확장이 불가능한 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예외 상황과 대응방안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)확장예정을 확정했지만 공격로가 끊어지는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4) 이전에 생성된 맵에 의해 확장예정에 맵이 없지만 향후 확장방향이 막힌 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확장예정을 확정 시키기전에 확장예정의 예정(확장예정의 방향)을 판단하여 미리 취소한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">기준점과 확장예정, 예정의 예정, 이전맵을 포함해 주변 9칸 안에 맵이 정사각형을 이루면 확장예정을 모두 취소 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3)확장 예정이 서로 겹치는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3-1) 두 기준맵의 방향정보를 토대로 무조건 3방향 패턴을 선택한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제점 : 확장예정의 겹침 여부를 어떻게 판단할 것인가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.3 맵기믹의 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3 맵 기믹의 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,14 +373,6 @@
   </si>
   <si>
     <t>기본 맵 패턴 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 기믹은 각 타일의 위에 기믹이 설치되는 것으로 취급한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;보류&gt; -&gt; 방향 정보에 대한 부분은 다른 방안을 생각해볼것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -562,6 +419,138 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 생성 규칙 변경, 패턴ID 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.8.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 전체 로드맵을 먼저 구성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 로드맵 안의 공격로를 무작위로 종류를 변경한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 1)2)의 방식으로 미리 구성된 맵을 '확장' 버튼을 누르면 로드맵을 따라 한칸씩 확장된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단, 분기점에 닿은 경우 확장 가능한 구역이 한번에 확장된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PatternType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격로 패턴은 공격로의 연결방향에 따라 Pattern ID를 결정한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시계방향 기준 PatternType을 명명한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격로 패턴은 7X7의 행렬 형태를 한 줄의 형태로 구성한 코드 스트링을 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001000000100000010001111000000000000000000000000'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +614,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,12 +653,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1085,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1116,9 +1099,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,74 +1161,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1391,184 +1369,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22861</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>119887</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="220981" y="7703820"/>
-          <a:ext cx="1965959" cy="1956307"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>601981</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>87290</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4152901" y="10462261"/>
-          <a:ext cx="1988819" cy="1999909"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>49702</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66046</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6507480" y="5017942"/>
-          <a:ext cx="3215640" cy="3658704"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
-          <xdr:row>73</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:colOff>64147</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
-          <xdr:row>82</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>152738</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
+                  <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683EF382-5E44-820C-BF62-33F78B3527BF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1589,10 +1413,23 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1604,26 +1441,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>73</xdr:row>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>5847</xdr:colOff>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>510540</xdr:colOff>
-          <xdr:row>83</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>100795</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
+                  <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5F77B9-3069-086A-46F3-8C8245A6B004}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1644,10 +1481,23 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1655,122 +1505,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>137160</xdr:colOff>
-          <xdr:row>59</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>70</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1031"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>539757</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8321040" y="10462260"/>
-          <a:ext cx="4486917" cy="2834640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1778,132 +1512,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>204555</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>214199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC94491-D3FF-D8AD-EA32-FEA97657AC75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="1737360"/>
-          <a:ext cx="5151120" cy="3328755"/>
+          <a:off x="2148840" y="822960"/>
+          <a:ext cx="2141220" cy="2042999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6309360" y="1613564"/>
-          <a:ext cx="4511040" cy="3385156"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2177,70 +1823,70 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.296875" customWidth="1"/>
     <col min="2" max="2" width="31.796875" customWidth="1"/>
-    <col min="4" max="4" width="2.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="2.5" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="15"/>
-      <c r="F1" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="F1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="F3" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="C3" s="26"/>
+      <c r="F3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
+      <c r="C4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
@@ -2250,15 +1896,15 @@
         <v>7</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
@@ -2268,165 +1914,171 @@
         <v>9</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="67"/>
+        <v>48</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>81</v>
+        <v>56</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="44"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="14" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="67"/>
+        <v>90</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="67"/>
+      <c r="A9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="F10" s="43" t="s">
-        <v>79</v>
+      <c r="F10" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="44"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="67"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="67"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
-      <c r="F13" s="43"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="16" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="44"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
-      <c r="F14" s="43" t="s">
-        <v>95</v>
+      <c r="F14" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="44"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
-      <c r="F15" s="43"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="44"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F16" s="43"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="44"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F17" s="43"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="44"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="6:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2435,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425F926-11E9-47C5-A408-0AEA8D0E58FF}">
-  <dimension ref="B2:Q24"/>
+  <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2450,7 +2102,7 @@
   <sheetData>
     <row r="2" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:17" s="8" customFormat="1" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2462,36 +2114,36 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="24" t="s">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
@@ -2504,14 +2156,14 @@
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="F6" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="3"/>
       <c r="O6" s="1" t="s">
         <v>12</v>
@@ -2524,22 +2176,22 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
       <c r="L7" s="5"/>
       <c r="O7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -2549,22 +2201,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="6"/>
       <c r="O8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -2572,168 +2224,168 @@
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G9" s="2"/>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="58"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="56"/>
+      <c r="C15" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="33"/>
-    </row>
-    <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="22"/>
-      <c r="C15" s="28" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="59"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B16" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B16" s="21" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="56"/>
+      <c r="C17" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="59"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B18" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="33"/>
-    </row>
-    <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="22"/>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="54"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B19" s="57"/>
+      <c r="C19" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
+    </row>
+    <row r="20" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="56"/>
+      <c r="C20" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="33"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="23"/>
-      <c r="C19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="36"/>
-    </row>
-    <row r="20" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="22"/>
-      <c r="C20" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -2741,19 +2393,18 @@
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="23" spans="2:15" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>109</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C19:I19"/>
@@ -2768,15 +2419,6 @@
     <mergeCell ref="F8:K8"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="F6:K6"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2785,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E633EF07-05DE-4561-AB1C-45A00CBE1A49}">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2799,49 +2441,49 @@
     <row r="1" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
         <v>39</v>
-      </c>
-      <c r="R5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="J20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:18" s="12" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="2:18" s="15" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2854,7 +2496,7 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2862,24 +2504,28 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2889,12 +2535,8 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B29" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2906,12 +2548,8 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2923,21 +2561,17 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B31" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B32" s="14"/>
@@ -3061,9 +2695,7 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="B42" s="14"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -3076,9 +2708,6 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -3094,9 +2723,7 @@
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="B44" s="14"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -3122,9 +2749,7 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="17" t="s">
-        <v>65</v>
-      </c>
+      <c r="B46" s="17"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -3147,23 +2772,17 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="G48" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="N48" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3174,7 +2793,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3185,7 +2804,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3196,7 +2815,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3207,7 +2826,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3218,7 +2837,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3229,7 +2848,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3240,7 +2859,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3251,7 +2870,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3262,7 +2881,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3273,10 +2892,8 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B59" s="2" t="s">
-        <v>68</v>
-      </c>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -3286,7 +2903,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -3297,7 +2914,7 @@
       <c r="J60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -3307,7 +2924,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3320,7 +2937,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3331,24 +2948,9 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="N63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="N64" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B72" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B73" t="s">
-        <v>69</v>
-      </c>
+      <c r="B72" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3361,77 +2963,52 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="1029" r:id="rId3">
+        <oleObject progId="PBrush" shapeId="1032" r:id="rId3">
           <objectPr defaultSize="0" autoPict="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
+                <xdr:colOff>60960</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>83820</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>167640</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="1029" r:id="rId3"/>
+        <oleObject progId="PBrush" shapeId="1032" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="1030" r:id="rId5">
+        <oleObject progId="PBrush" shapeId="1033" r:id="rId5">
           <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>73</xdr:row>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>68580</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>510540</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>99060</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="1030" r:id="rId5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="1031" r:id="rId7">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>137160</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>396240</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="1031" r:id="rId7"/>
+        <oleObject progId="PBrush" shapeId="1033" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -3440,226 +3017,426 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55029166-0F3A-417D-88E0-E2B393473FBD}">
-  <dimension ref="B3:R24"/>
+  <dimension ref="B2:S28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.09765625" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="18">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="18">
+        <v>3</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="18">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="18">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="18">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="18">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="18">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="18">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="50"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="53"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="53"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="53"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="53"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="K12" s="51"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="53"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="53"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="53"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="53"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="53"/>
-    </row>
-    <row r="17" spans="11:18" x14ac:dyDescent="0.4">
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="53"/>
-    </row>
-    <row r="18" spans="11:18" x14ac:dyDescent="0.4">
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="53"/>
-    </row>
-    <row r="19" spans="11:18" x14ac:dyDescent="0.4">
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="53"/>
-    </row>
-    <row r="20" spans="11:18" x14ac:dyDescent="0.4">
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="53"/>
-    </row>
-    <row r="21" spans="11:18" x14ac:dyDescent="0.4">
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="53"/>
-    </row>
-    <row r="22" spans="11:18" x14ac:dyDescent="0.4">
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="53"/>
-    </row>
-    <row r="23" spans="11:18" x14ac:dyDescent="0.4">
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="53"/>
-    </row>
-    <row r="24" spans="11:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K24" s="54"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="18">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B17" s="18">
+        <v>11</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B18" s="18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B19" s="18">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B20" s="18">
+        <v>14</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J7:P7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3682,48 +3459,48 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+        <v>78</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
+        <v>77</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C4" s="13">
         <v>22</v>
@@ -3746,14 +3523,14 @@
       <c r="I4" s="13">
         <v>28</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C5" s="13">
         <v>29</v>
@@ -3776,14 +3553,14 @@
       <c r="I5" s="13">
         <v>4</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C6" s="13">
         <v>5</v>
@@ -3797,227 +3574,238 @@
       <c r="F6" s="13">
         <v>8</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="32">
         <v>9</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="32">
         <v>10</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="32">
         <v>11</v>
       </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="70"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="63"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="71">
+      <c r="B9" s="33">
         <v>22</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="70"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
+      <c r="C9" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="63"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="71">
+      <c r="B10" s="33">
         <v>23</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="70"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="63"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="71">
+      <c r="B11" s="33">
         <v>24</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="70"/>
+      <c r="C11" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="63"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="71">
+      <c r="B12" s="33">
         <v>25</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="70"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="71">
+      <c r="B13" s="33">
         <v>26</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="70"/>
+      <c r="C13" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="71">
+      <c r="B14" s="33">
         <v>27</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="63"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="71">
+      <c r="B15" s="33">
         <v>28</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="63"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="71">
+      <c r="B16" s="33">
         <v>29</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="70"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="71">
+      <c r="B17" s="33">
         <v>30</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="70"/>
+      <c r="C17" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="63"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="71">
+      <c r="B18" s="33">
         <v>31</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="70"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="71">
+      <c r="B19" s="33">
         <v>1</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="70"/>
+      <c r="C19" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="71">
+      <c r="B20" s="33">
         <v>2</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="70"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="71">
+      <c r="B21" s="33">
         <v>3</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="70"/>
+      <c r="C21" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="63"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="71">
+      <c r="B22" s="33">
         <v>4</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="70"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="71">
+      <c r="B23" s="33">
         <v>5</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="70"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="71">
+      <c r="B24" s="33">
         <v>6</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="70"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="63"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="71">
+      <c r="B25" s="33">
         <v>7</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="70"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="63"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="71">
+      <c r="B26" s="33">
         <v>8</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="70"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:N10"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
@@ -4028,17 +3816,6 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:N10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/맵생성규칙기획서.xlsx
+++ b/Design/맵생성규칙기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\작업공간\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F56C80-D841-4790-9D70-7B64EF87C601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0F0841-928C-4BAB-A1F7-01E34FDFC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="181">
   <si>
     <t>Version Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,14 +68,6 @@
   </si>
   <si>
     <t>맵 패턴 기반 랜덤방식으로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TileID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -347,18 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +388,6 @@
   </si>
   <si>
     <t>URD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -573,10 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3) 1)2)의 방식으로 미리 구성된 맵을 '확장' 버튼을 누르면 로드맵을 따라 한칸씩 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단, 분기점에 닿은 경우 확장 가능한 구역이 한번에 보여준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GroundPattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map 기획 수정, Pattern 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,14 +733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵의 공격로는 최대 3개까지만 분기한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵의 최대 레벨 제한은 n으로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -790,6 +750,167 @@
   </si>
   <si>
     <t>3.1 패턴 구성 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRoute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>House</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.8.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 1)2)의 방식으로 미리 구성된 맵을 '확장' 버튼을 누르면 맵을 따라 한칸씩 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵의 공격로는 최대 3개까지만 분기한다. 나눠진 공격로는 합쳐지지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵의 최대 레벨 제한은 50으로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트를 통해 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마을을 원점으로하는 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)좌표</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>왼쪽위를 원점으로 하는 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) 좌표</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum 테이블 수정, 패턴 설명추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 구성 규칙 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,7 +918,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +973,40 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -897,7 +1052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1324,14 +1479,76 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1340,24 +1557,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -1369,7 +1574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
@@ -1391,6 +1595,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1400,10 +1628,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,63 +1659,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1507,7 +1786,7 @@
         <xdr:cNvPr id="4" name="그룹 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ECDC88D-C41D-0F74-52D8-C9E65EF9CEC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,116 +1949,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1032"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>472440</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>133198</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1033"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1798,7 +1967,7 @@
         <xdr:cNvPr id="5" name="화살표: 갈매기형 수장 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E099E1B-9CE6-5CEC-9216-08570640463A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,7 +2069,7 @@
         <xdr:cNvPr id="9" name="화살표: 갈매기형 수장 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02773943-5E77-4A78-953E-61FB5E9BBE99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2251,7 @@
         <xdr:cNvPr id="15" name="그룹 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566C5237-619F-1B0C-B6D0-3F70D038E0EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2270,7 @@
           <xdr:cNvPr id="11" name="화살표: 오각형 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003008B1-61C0-9546-5717-1973166D359A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2149,7 +2318,7 @@
           <xdr:cNvPr id="12" name="화살표: 갈매기형 수장 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3C9F5C-6DC1-39EF-270F-88DC411A0BB2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2201,7 +2370,7 @@
           <xdr:cNvPr id="13" name="화살표: 갈매기형 수장 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F55D78-9D6F-4847-BE46-08CE50EEEE6D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2253,7 +2422,7 @@
           <xdr:cNvPr id="14" name="화살표: 갈매기형 수장 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AA3F03-080A-4BBC-87F8-55AD3B4DC7B3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2321,7 +2490,7 @@
         <xdr:cNvPr id="16" name="화살표: 갈매기형 수장 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18356F57-0D7E-4E10-80D3-48AAE75E1B68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2632,7 @@
         <xdr:cNvPr id="19" name="말풍선: 사각형 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E920FB6-8B61-BA99-A3EC-7B52CBD4773C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2759,7 @@
         <xdr:cNvPr id="20" name="화살표: 갈매기형 수장 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0974102-5A8A-44D2-A8F0-C912A92ED23B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,6 +2835,142 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>8934</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF39E03-10BA-ADCB-7D88-4E1A8750EBFA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>640080</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>137160</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Object 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBDD661-ACB9-079D-6C75-68FC706DFE5C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2673,16 +2978,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>107519</xdr:rowOff>
+      <xdr:rowOff>99899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2705,7 +3010,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2026920" y="960120"/>
+          <a:off x="2590800" y="960120"/>
           <a:ext cx="2141220" cy="2042999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2723,22 +3028,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>658604</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>635744</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00474F5A-5CE3-5326-AB3D-7AC1B385EE88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +3059,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5478780" y="2331720"/>
+          <a:off x="5890260" y="2552700"/>
           <a:ext cx="3241784" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2797,22 +3102,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="직선 화살표 연결선 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32347F90-19D0-B25E-132D-C87D0A667148}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +3125,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5151120" y="2232660"/>
+          <a:off x="5745480" y="2529840"/>
           <a:ext cx="15240" cy="1851660"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2850,22 +3155,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CF99F9-72BA-4AC1-B1DF-2C6C8D0200F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,8 +3178,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5349240" y="2110740"/>
-          <a:ext cx="3398520" cy="0"/>
+          <a:off x="5844540" y="2423160"/>
+          <a:ext cx="3535680" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2921,7 +3226,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B74F702-3E3C-71F7-CE4C-7ADED01A43C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2955,8 +3260,8 @@
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>73545</xdr:rowOff>
     </xdr:to>
@@ -2965,7 +3270,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6438C64-C165-FD08-CC63-F5D71362FCF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3319,7 @@
         <xdr:cNvPr id="15" name="직선 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8E546C-7310-8D84-3AD5-18D05C9ADD6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3370,7 @@
         <xdr:cNvPr id="16" name="직선 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A647D505-C434-4481-AB3B-ED03B1BEE03E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3116,7 +3421,7 @@
         <xdr:cNvPr id="17" name="직선 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28505273-9E1F-4FC7-A556-7FE98488F185}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3167,7 +3472,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DA3336-D8FB-ED03-EBD7-B33001BD8E99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3525,7 @@
         <xdr:cNvPr id="23" name="직사각형 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A583BA-7B08-568F-D48E-B602F4DBB0F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3313,7 +3618,7 @@
         <xdr:cNvPr id="24" name="직선 화살표 연결선 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE15508-0926-438A-908F-00EB39E9EABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3671,7 @@
         <xdr:cNvPr id="27" name="직선 연결선 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867ECC8F-70D8-48C1-B5C1-4453D83FC734}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3417,7 +3722,7 @@
         <xdr:cNvPr id="28" name="직선 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586029B3-221F-4C21-A5DC-C5D13F501D06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3468,7 +3773,7 @@
         <xdr:cNvPr id="29" name="직선 연결선 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE0BC4E-E0C0-4BA4-B6D2-418FE5B12323}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3519,7 +3824,7 @@
         <xdr:cNvPr id="30" name="직선 연결선 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259838F1-6796-42E7-A912-3958C39CF825}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3570,7 +3875,7 @@
         <xdr:cNvPr id="31" name="직선 연결선 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31422A89-1CEC-4FDD-AF96-03319F2EED3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3585,6 +3890,189 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>625172</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>122030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D49E75-DD17-5125-6573-8B2DBE43430F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373380" y="7970520"/>
+          <a:ext cx="3825572" cy="1272650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41490403-A01F-4EBC-8F45-F29DB256425C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1859280" y="8732520"/>
+          <a:ext cx="2712720" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6672CB0A-CC1E-40D3-9733-39880E8F393E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1851660" y="7917180"/>
+          <a:ext cx="7620" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3869,286 +4357,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.296875" customWidth="1"/>
     <col min="2" max="2" width="31.796875" customWidth="1"/>
-    <col min="4" max="4" width="2.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="2.5" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="14"/>
-      <c r="F1" s="38" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="10"/>
+      <c r="F1" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="F3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="F3" s="27" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="41" t="s">
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
+      <c r="B12" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="F16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="32"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="F17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F18" s="19"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F19" s="19"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F20" s="14"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G6:J6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4159,218 +4667,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425F926-11E9-47C5-A408-0AEA8D0E58FF}">
   <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="8.796875" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" s="8" customFormat="1" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
+    <row r="2" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" s="4" customFormat="1" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="4" t="s">
-        <v>16</v>
+      <c r="C5" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="95">
+        <v>1</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105" t="s">
+        <v>14</v>
       </c>
       <c r="O5" s="58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P5" s="58"/>
       <c r="Q5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="3"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="95">
+        <v>2</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="107"/>
       <c r="O6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="5"/>
+    <row r="7" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="96"/>
+      <c r="C7" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="108"/>
       <c r="O7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="6"/>
+    <row r="8" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="97"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="113"/>
       <c r="O8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="G9" s="2"/>
-      <c r="I9" t="s">
-        <v>35</v>
+      <c r="H9" s="33"/>
+      <c r="J9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="75"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="71"/>
+    </row>
+    <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="73"/>
+      <c r="C15" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="76"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B16" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C16" s="61" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
-    </row>
-    <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="44"/>
-      <c r="C15" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B16" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>29</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -4378,17 +4893,17 @@
       <c r="G16" s="61"/>
       <c r="H16" s="61"/>
       <c r="I16" s="61"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="71"/>
     </row>
     <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="44"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
@@ -4396,21 +4911,21 @@
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
-      <c r="J17" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
+      <c r="J17" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="76"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="43" t="s">
-        <v>15</v>
+      <c r="B18" s="72" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -4418,17 +4933,17 @@
       <c r="G18" s="61"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="71"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="45"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
@@ -4436,17 +4951,17 @@
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
       <c r="I19" s="60"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="57"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="79"/>
     </row>
     <row r="20" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="44"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
@@ -4454,19 +4969,28 @@
       <c r="G20" s="59"/>
       <c r="H20" s="59"/>
       <c r="I20" s="59"/>
-      <c r="J20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
+      <c r="J20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="23" spans="2:15" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F5:K5"/>
+  <mergeCells count="22">
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="J19:O19"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C18:I18"/>
@@ -4477,18 +5001,8 @@
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="J14:O14"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G7:L7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4499,8 +5013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E633EF07-05DE-4561-AB1C-45A00CBE1A49}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4508,63 +5022,63 @@
     <col min="1" max="1" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="14" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
-        <v>126</v>
+      <c r="B2" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="84"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="I21" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="84"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="I22" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="J20" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="65"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="I21" s="35" t="s">
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="87"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="I23" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="65"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="I22" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="72"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="I23" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="72"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="87"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4576,24 +5090,24 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="B29" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="35" t="s">
-        <v>104</v>
+      <c r="B30" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
@@ -4601,14 +5115,14 @@
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
       <c r="I30" s="60"/>
-      <c r="J30" s="31"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="68" t="s">
-        <v>105</v>
+      <c r="B31" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
@@ -4616,14 +5130,14 @@
       <c r="G31" s="60"/>
       <c r="H31" s="60"/>
       <c r="I31" s="60"/>
-      <c r="J31" s="31"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B32" s="68" t="s">
-        <v>106</v>
+      <c r="B32" s="39" t="s">
+        <v>100</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
@@ -4631,22 +5145,22 @@
       <c r="G32" s="60"/>
       <c r="H32" s="60"/>
       <c r="I32" s="60"/>
-      <c r="J32" s="31"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4654,14 +5168,13 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4669,10 +5182,9 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B36" s="2"/>
@@ -4685,7 +5197,7 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="13"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -4698,7 +5210,7 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B38" s="13"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4711,20 +5223,20 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B39" s="13"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="13"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -4737,7 +5249,7 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="13"/>
+      <c r="B41" s="9"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4749,7 +5261,7 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B42" s="13"/>
+      <c r="B42" s="9"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4761,7 +5273,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B43" s="13"/>
+      <c r="B43" s="9"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4773,7 +5285,7 @@
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B44" s="13"/>
+      <c r="B44" s="9"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -4785,7 +5297,7 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B45" s="13"/>
+      <c r="B45" s="9"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4797,7 +5309,7 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B46" s="13"/>
+      <c r="B46" s="9"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -4809,7 +5321,7 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B47" s="13"/>
+      <c r="B47" s="9"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -4821,7 +5333,7 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B48" s="13"/>
+      <c r="B48" s="9"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -4833,7 +5345,7 @@
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="13"/>
+      <c r="B49" s="9"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -4845,7 +5357,7 @@
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="13"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4873,7 +5385,7 @@
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="13"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4886,7 +5398,7 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="13"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4899,8 +5411,8 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B54" s="73" t="s">
-        <v>130</v>
+      <c r="B54" s="41" t="s">
+        <v>122</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -4914,8 +5426,8 @@
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B55" s="13" t="s">
-        <v>166</v>
+      <c r="B55" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -4926,23 +5438,23 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B56" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="J56" s="31"/>
+      <c r="B56" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="J56" s="60"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B57" s="60" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C57" s="60"/>
       <c r="D57" s="60"/>
@@ -4950,35 +5462,39 @@
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
       <c r="H57" s="60"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="2"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B58" s="87" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="2"/>
+      <c r="B58" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="J58" s="60"/>
     </row>
     <row r="59" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="2"/>
+      <c r="B59" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J59" s="60"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B60" s="2"/>
@@ -5129,12 +5645,7 @@
       <c r="B81" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="C39:L39"/>
+  <mergeCells count="16">
     <mergeCell ref="J20:N20"/>
     <mergeCell ref="J21:N21"/>
     <mergeCell ref="J22:N22"/>
@@ -5142,6 +5653,15 @@
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C30:I30"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I59:J59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5150,52 +5670,52 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="1032" r:id="rId3">
+        <oleObject progId="PBrush" shapeId="1035" r:id="rId3">
           <objectPr defaultSize="0" autoPict="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>60960</xdr:colOff>
+                <xdr:colOff>53340</xdr:colOff>
                 <xdr:row>35</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>83820</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="1032" r:id="rId3"/>
+        <oleObject progId="PBrush" shapeId="1035" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="1033" r:id="rId5">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+        <oleObject progId="PBrush" shapeId="1036" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>640080</xdr:colOff>
                 <xdr:row>35</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
+                <xdr:rowOff>137160</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>472440</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>129540</xdr:rowOff>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="1033" r:id="rId5"/>
+        <oleObject progId="PBrush" shapeId="1036" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -5204,535 +5724,555 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55029166-0F3A-417D-88E0-E2B393473FBD}">
-  <dimension ref="B2:T39"/>
+  <dimension ref="B2:T43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" customWidth="1"/>
     <col min="9" max="9" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="86"/>
-      <c r="I4" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="B4" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="50"/>
+      <c r="I4" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="27"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="116">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+    </row>
+    <row r="7" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="14"/>
+      <c r="C7" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="116">
+        <v>2</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+    </row>
+    <row r="8" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="14"/>
+      <c r="C8" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="32"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="D8" s="116">
+        <v>3</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="14"/>
+      <c r="C9" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-    </row>
-    <row r="7" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="16">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="D9" s="116">
+        <v>4</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="14"/>
+      <c r="C10" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="116">
+        <v>5</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="14"/>
+      <c r="C11" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-    </row>
-    <row r="8" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="16">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="D11" s="116">
+        <v>6</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="16">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="D12" s="116">
+        <v>7</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="14"/>
+      <c r="C13" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="116">
+        <v>8</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="14"/>
+      <c r="C14" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B10" s="16">
-        <v>4</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="D14" s="116">
+        <v>9</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+      <c r="C15" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="16">
-        <v>5</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="D15" s="116">
+        <v>10</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="14"/>
+      <c r="C16" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="16">
-        <v>6</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="D16" s="116">
+        <v>11</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B17" s="14"/>
+      <c r="C17" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B13" s="16">
-        <v>7</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="D17" s="116">
+        <v>12</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B18" s="14"/>
+      <c r="C18" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B14" s="16">
-        <v>8</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B15" s="16">
-        <v>9</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="D18" s="116">
+        <v>13</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="15"/>
+      <c r="C19" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B16" s="16">
-        <v>10</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B17" s="16">
-        <v>11</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B18" s="16">
-        <v>12</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-    </row>
-    <row r="19" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="16">
-        <v>13</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B20" s="16">
+      <c r="D19" s="118">
         <v>14</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+    </row>
+    <row r="20" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
+        <v>121</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
+        <v>123</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
+        <v>124</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
     </row>
     <row r="25" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
     </row>
     <row r="26" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G26" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
+      <c r="G26" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
     </row>
     <row r="27" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G27" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
+      <c r="G27" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B31" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="30" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B31" s="35" t="s">
+      <c r="I31" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="K31" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="L31" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="M31" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="N31" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="O31" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="P31" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="Q31" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="J31" s="69" t="s">
+      <c r="R31" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="S31" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="T31" s="30" t="s">
         <v>147</v>
-      </c>
-      <c r="M31" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="N31" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="O31" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="P31" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q31" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="R31" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="S31" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="T31" s="35" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.4">
@@ -5791,42 +6331,120 @@
         <v>13</v>
       </c>
     </row>
+    <row r="33" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>172</v>
-      </c>
+      <c r="B34" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B35" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B36" s="14"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B37" s="14"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="34"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B38" s="14"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="J39" s="69" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
+      <c r="J39" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="L39" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="M39" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="O39" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="P39" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q39" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="R39" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="K39" s="35" t="s">
+      <c r="S39" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="L39" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="M39" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="N39" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="O39" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="P39" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q39" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="R39" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="S39" s="35" t="s">
-        <v>165</v>
-      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B40" s="14"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B41" s="14"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B42" s="14"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34"/>
+    </row>
+    <row r="43" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5842,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFA2812-7629-4D41-B60B-81D3901BF4BE}">
   <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5854,352 +6472,342 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="8">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8">
+        <v>27</v>
+      </c>
+      <c r="I4" s="8">
+        <v>28</v>
+      </c>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="8">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8">
+        <v>4</v>
+      </c>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8">
+        <v>8</v>
+      </c>
+      <c r="G6" s="24">
+        <v>9</v>
+      </c>
+      <c r="H6" s="24">
+        <v>10</v>
+      </c>
+      <c r="I6" s="24">
+        <v>11</v>
+      </c>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+    </row>
+    <row r="7" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="84"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="25">
+        <v>22</v>
+      </c>
+      <c r="C9" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="84"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B10" s="25">
+        <v>23</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="84"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="25">
+        <v>24</v>
+      </c>
+      <c r="C11" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="15"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="66" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="84"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B12" s="25">
+        <v>25</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="84"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="25">
+        <v>26</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="84"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B14" s="25">
+        <v>27</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="84"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="25">
+        <v>28</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="84"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="25">
+        <v>29</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="84"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="25">
+        <v>30</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="84"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="25">
+        <v>31</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="84"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="84"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="25">
+        <v>2</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="84"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="25">
+        <v>3</v>
+      </c>
+      <c r="C21" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="12">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12">
-        <v>23</v>
-      </c>
-      <c r="E4" s="12">
-        <v>24</v>
-      </c>
-      <c r="F4" s="12">
-        <v>25</v>
-      </c>
-      <c r="G4" s="12">
-        <v>26</v>
-      </c>
-      <c r="H4" s="12">
-        <v>27</v>
-      </c>
-      <c r="I4" s="12">
-        <v>28</v>
-      </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="12">
-        <v>29</v>
-      </c>
-      <c r="D5" s="12">
-        <v>30</v>
-      </c>
-      <c r="E5" s="12">
-        <v>31</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12">
-        <v>2</v>
-      </c>
-      <c r="H5" s="12">
-        <v>3</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="84"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="25">
         <v>4</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="84"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="25">
         <v>5</v>
       </c>
-      <c r="D6" s="12">
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="84"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="25">
         <v>6</v>
       </c>
-      <c r="E6" s="12">
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="84"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="25">
         <v>7</v>
       </c>
-      <c r="F6" s="12">
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="84"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="25">
         <v>8</v>
       </c>
-      <c r="G6" s="29">
-        <v>9</v>
-      </c>
-      <c r="H6" s="29">
-        <v>10</v>
-      </c>
-      <c r="I6" s="29">
-        <v>11</v>
-      </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-    </row>
-    <row r="7" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="65"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="30">
-        <v>22</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="30">
-        <v>23</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="65"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="30">
-        <v>24</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="65"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="30">
-        <v>25</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="65"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="30">
-        <v>26</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="65"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="30">
-        <v>27</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="65"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="30">
-        <v>28</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="65"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="30">
-        <v>29</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="65"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="30">
-        <v>30</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="65"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="30">
-        <v>31</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="65"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="30">
-        <v>1</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="65"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="30">
-        <v>2</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="65"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="30">
-        <v>3</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="65"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="30">
-        <v>4</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="65"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="30">
-        <v>5</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="65"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="30">
-        <v>6</v>
-      </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="65"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="30">
-        <v>7</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="65"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="30">
-        <v>8</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="65"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:N10"/>
@@ -6211,6 +6819,16 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/맵생성규칙기획서.xlsx
+++ b/Design/맵생성규칙기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\작업공간\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0F0841-928C-4BAB-A1F7-01E34FDFC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8597D761-ABDB-4D77-9373-CE53D8E4DCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,27 @@
     <sheet name="Pattern" sheetId="4" r:id="rId4"/>
     <sheet name="개발일정" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="220">
   <si>
     <t>Version Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,14 +126,6 @@
   </si>
   <si>
     <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타일 에셋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미리보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,10 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단, 분기점에 닿은 경우 확장 가능한 구역이 한번에 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그라운드 패턴은 7X7의 행렬 형태를 한 줄의 형태로 구성한 코드 스트링을 사용한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,10 +587,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵의 패턴의 구성은 Map 구성 규칙에서 다룬다.(2.3맵 구성 규칙)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>맵 패턴의 값은 아래의 형식으로 데이터화 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -786,10 +780,6 @@
   </si>
   <si>
     <t>22.8.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 1)2)의 방식으로 미리 구성된 맵을 '확장' 버튼을 누르면 맵을 따라 한칸씩 보여준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -911,6 +901,206 @@
   </si>
   <si>
     <t>맵 구성 규칙 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 그라운드 개수 조건 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.8.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3) 1)2)의 방식으로 미리 구성된 맵을 '확장' 버튼을 누르면 맵을 따라 한칸씩 보여준다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*최초 확장에서는 5개 그라운드를 오픈한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 분기점을 만나면 확장 가능한 구역을 동시에 오픈한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundPattern 규칙 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵의 확장 방향을 가로 위주로 구성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundPattern은 기본형과 응용형으로 나누어 관리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본형 아래와 같이 14개의 그라운드로 구성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라운드 각각에는 응용형 10가지를 가진다. (응용형의 개수는 맵을 직접 생성해보고 이후 최종 결정 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단, 마을이 위치한 TR, TU, TL, TD는 응용형을 가지지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산식 : 10(마을그라운드 제외 10개)X응용형갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라운드패턴 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">응용형은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기본형의 GroundType을 가진 다른 ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 명명한다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본형 5UR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용형 15UR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용형 패턴은 아래와 같이 사이클을 이루지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵의 패턴의 구성은 Map 구성 규칙(2.3맵 구성 규칙)을 따라 제작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15~24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용형ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25~34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35~44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45~54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55~64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65~74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75~84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85~94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95~104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105~114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격로 관련 Global System 적용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격로 분기점 최대 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 구성 규칙에 따른 Global System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch_Number_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start_Ground_Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 시작시 열려있는 그라운드 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,7 +1242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1553,17 +1743,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1615,71 +1827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
@@ -1687,15 +1835,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1724,15 +1863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1748,6 +1878,128 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2815,7 +3067,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>최종 레벨에 도달하면 게임이 종료된다</a:t>
+            <a:t>최종 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>레벨에 도달하면 게임이 종료된다</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
@@ -2846,7 +3114,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>8934</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>83820</xdr:rowOff>
         </xdr:to>
@@ -2858,7 +3126,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF39E03-10BA-ADCB-7D88-4E1A8750EBFA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2879,23 +3147,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2926,7 +3181,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBDD661-ACB9-079D-6C75-68FC706DFE5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2947,23 +3202,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2971,6 +3213,577 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="말풍선: 사각형 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11971020" y="6568440"/>
+          <a:ext cx="2110740" cy="906780"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -87494"/>
+            <a:gd name="adj2" fmla="val 46814"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>최초 그라운드 오픈은</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>GlobalSystem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 으로 관리하여</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>수치 조정에 용이하도록 한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="직선 연결선 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6995160" y="9342120"/>
+          <a:ext cx="784860" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 연결선 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7764780" y="8656320"/>
+          <a:ext cx="0" cy="678180"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="직선 연결선 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7749540" y="8648700"/>
+          <a:ext cx="2240280" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="직선 연결선 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9997440" y="8633460"/>
+          <a:ext cx="0" cy="830580"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="직선 연결선 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8564880" y="9456420"/>
+          <a:ext cx="1440180" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>34834</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="직선 연결선 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582297" y="9505406"/>
+          <a:ext cx="0" cy="770708"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="직선 연결선 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6987540" y="9319260"/>
+          <a:ext cx="7620" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="직선 연결선 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6972300" y="10218420"/>
+          <a:ext cx="1630680" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8282940" y="8336280"/>
+          <a:ext cx="1470660" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>최초 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>개 오픈</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2987,7 +3800,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>99899</xdr:rowOff>
+      <xdr:rowOff>92279</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3036,7 +3849,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>635744</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>29391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3219,7 +4032,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>152436</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>198142</xdr:rowOff>
+      <xdr:rowOff>198141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3919,14 +4732,14 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>625172</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>122030</xdr:rowOff>
+      <xdr:rowOff>122029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D49E75-DD17-5125-6573-8B2DBE43430F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4000,7 +4813,7 @@
         <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41490403-A01F-4EBC-8F45-F29DB256425C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4056,7 +4869,7 @@
         <xdr:cNvPr id="11" name="직선 화살표 연결선 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6672CB0A-CC1E-40D3-9733-39880E8F393E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4089,6 +4902,422 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11986260" y="1165860"/>
+          <a:ext cx="7551420" cy="1923405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="10320"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12001500" y="4038600"/>
+          <a:ext cx="1920240" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>16820</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>37180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>598041</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect l="4921"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14689261" y="4073152"/>
+          <a:ext cx="1926546" cy="1384497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>613283</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>628522</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect l="2074"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16631049" y="4074725"/>
+          <a:ext cx="2033225" cy="1383884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>636141</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>120872</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18671893" y="4066267"/>
+          <a:ext cx="2175379" cy="1391681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12001500" y="4015740"/>
+          <a:ext cx="403860" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>671349</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>402547</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14671128" y="4042016"/>
+          <a:ext cx="403860" cy="228337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>259081</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>444683</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21610321" y="4046221"/>
+          <a:ext cx="2197282" cy="1409699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4360,290 +5589,312 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.296875" customWidth="1"/>
     <col min="2" max="2" width="31.796875" customWidth="1"/>
-    <col min="4" max="4" width="2.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="2.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="10"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="8"/>
+      <c r="F1" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="F3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="F3" s="22" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="51" t="s">
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F13" s="14"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="F17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="F17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F19" s="14"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F20" s="14"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4668,7 +5919,7 @@
   <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:L6"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4680,308 +5931,297 @@
     <col min="6" max="6" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" s="4" customFormat="1" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" s="2" customFormat="1" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B5" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="53">
+        <v>1</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="138"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="52"/>
+      <c r="C6" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D6" s="53">
+        <v>2</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="62"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+    </row>
+    <row r="7" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="54"/>
+      <c r="C7" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="95">
-        <v>1</v>
-      </c>
-      <c r="F5" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="94"/>
-      <c r="C6" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="95">
-        <v>2</v>
-      </c>
-      <c r="F6" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="107"/>
-      <c r="O6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="96"/>
-      <c r="C7" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="106" t="s">
+      <c r="F7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="98" t="s">
+      <c r="G7" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="108"/>
-      <c r="O7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="63"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
     </row>
     <row r="8" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="97"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="F8" s="109" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="F8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="113"/>
-      <c r="O8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="65"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="H9" s="33"/>
+      <c r="H9" s="31"/>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="62" t="s">
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="75"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="109"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="97"/>
+    </row>
+    <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="105"/>
+      <c r="C15" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="110"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B16" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="71"/>
-    </row>
-    <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="73"/>
-      <c r="C15" s="68" t="s">
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="97"/>
+    </row>
+    <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="105"/>
+      <c r="C17" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="76"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B16" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="61" t="s">
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="110"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B18" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="97"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B19" s="106"/>
+      <c r="C19" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="71"/>
-    </row>
-    <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="73"/>
-      <c r="C17" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="76"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="71"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="74"/>
-      <c r="C19" s="60" t="s">
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="113"/>
+    </row>
+    <row r="20" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="105"/>
+      <c r="C20" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="79"/>
-    </row>
-    <row r="20" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="73"/>
-      <c r="C20" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="23" spans="2:15" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G6:L6"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B20"/>
@@ -5003,6 +6243,7 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5011,641 +6252,746 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E633EF07-05DE-4561-AB1C-45A00CBE1A49}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="13" max="13" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
-        <v>118</v>
+      <c r="B2" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="119"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="I21" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="119"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J22" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="84"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="I21" s="30" t="s">
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="122"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="I23" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="77" t="s">
+      <c r="J23" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="84"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="I22" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="85" t="s">
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="122"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B29" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B30" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B31" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B34" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="11"/>
+      <c r="K34" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="113"/>
+    </row>
+    <row r="35" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="87"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="I23" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="J23" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="87"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B32" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="K34" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="K35" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="9"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B38" s="9"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B39" s="9"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="9"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="9"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B42" s="9"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B43" s="9"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B44" s="9"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B45" s="9"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B46" s="9"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B47" s="9"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B48" s="9"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="9"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="9"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="9"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="9"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B54" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B55" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B56" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="J56" s="60"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B57" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B58" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="J58" s="60"/>
-    </row>
-    <row r="59" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="J59" s="60"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="K35" s="124" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="110"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B37" s="7"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B38" s="7"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B39" s="7"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B40" s="7"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B41" s="7"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B42" s="7"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B43" s="7"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B44" s="7"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B45" s="7"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B46" s="7"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B47" s="7"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B48" s="7"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B49" s="7"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B50" s="7"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B52" s="7"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B53" s="7"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B54" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B55" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="M55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B56" s="126" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="J56" s="115"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="N56" s="134"/>
+      <c r="O56" s="134"/>
+      <c r="P56" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q56" s="134" t="s">
+        <v>212</v>
+      </c>
+      <c r="R56" s="134"/>
+      <c r="S56" s="134"/>
+      <c r="T56" s="134"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B57" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="115"/>
+      <c r="L57" s="133"/>
+      <c r="M57" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="N57" s="134"/>
+      <c r="O57" s="134"/>
+      <c r="P57" s="135" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q57" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="R57" s="134"/>
+      <c r="S57" s="134"/>
+      <c r="T57" s="134"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B58" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="J58" s="115"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="134" t="s">
+        <v>217</v>
+      </c>
+      <c r="N58" s="134"/>
+      <c r="O58" s="134"/>
+      <c r="P58" s="135">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="134" t="s">
+        <v>215</v>
+      </c>
+      <c r="R58" s="134"/>
+      <c r="S58" s="134"/>
+      <c r="T58" s="134"/>
+    </row>
+    <row r="59" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="J59" s="115"/>
+      <c r="M59" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="N59" s="136"/>
+      <c r="O59" s="136"/>
+      <c r="P59" s="135">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="134" t="s">
+        <v>219</v>
+      </c>
+      <c r="R59" s="134"/>
+      <c r="S59" s="134"/>
+      <c r="T59" s="134"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B60" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="119"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="A72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B81" s="2"/>
+      <c r="B81" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="28">
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="Q57:T57"/>
+    <mergeCell ref="Q58:T58"/>
     <mergeCell ref="J20:N20"/>
     <mergeCell ref="J21:N21"/>
     <mergeCell ref="J22:N22"/>
@@ -5653,15 +6999,12 @@
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C30:I30"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="C39:L39"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="I59:J59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I60:J60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5724,10 +7067,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55029166-0F3A-417D-88E0-E2B393473FBD}">
-  <dimension ref="B2:T43"/>
+  <dimension ref="B2:AK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5739,543 +7082,1033 @@
     <col min="9" max="9" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:37" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE3" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="11"/>
+    </row>
+    <row r="4" spans="2:37" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="I4" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="R4" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="72"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B5" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="25"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE5" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="72"/>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="68">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE6" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="72"/>
+    </row>
+    <row r="7" spans="2:37" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="12"/>
+      <c r="C7" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="68">
+        <v>2</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE7" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="72"/>
+    </row>
+    <row r="8" spans="2:37" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="12"/>
+      <c r="C8" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="68">
+        <v>3</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE8" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="72"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B9" s="12"/>
+      <c r="C9" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="68">
+        <v>4</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE9" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="72"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B10" s="12"/>
+      <c r="C10" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="68">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE10" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="72"/>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B11" s="12"/>
+      <c r="C11" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="68">
+        <v>6</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE11" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="72"/>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B12" s="12"/>
+      <c r="C12" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="68">
+        <v>7</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE12" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="72"/>
+    </row>
+    <row r="13" spans="2:37" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="12"/>
+      <c r="C13" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="68">
+        <v>8</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE13" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="72"/>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B14" s="12"/>
+      <c r="C14" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="68">
+        <v>9</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="72"/>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B15" s="12"/>
+      <c r="C15" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="68">
+        <v>10</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="S15" s="74"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="72"/>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B16" s="12"/>
+      <c r="C16" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="68">
+        <v>11</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="S16" s="74"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE16" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="72"/>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B17" s="12"/>
+      <c r="C17" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="68">
+        <v>12</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="S17" s="74"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72">
+        <v>10</v>
+      </c>
+      <c r="AE17" s="85">
+        <f>10*AD17</f>
+        <v>100</v>
+      </c>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="72"/>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B18" s="12"/>
+      <c r="C18" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="68">
+        <v>13</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="S18" s="74"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="72"/>
+    </row>
+    <row r="19" spans="2:37" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="13"/>
+      <c r="C19" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="70">
+        <v>14</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="72"/>
+    </row>
+    <row r="20" spans="2:37" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="72"/>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="72"/>
+      <c r="AF21" s="72"/>
+      <c r="AG21" s="72"/>
+      <c r="AH21" s="72"/>
+      <c r="AI21" s="72"/>
+      <c r="AJ21" s="73"/>
+      <c r="AK21" s="72"/>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="72"/>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="72"/>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="50"/>
-      <c r="I4" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="115" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="116">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="72"/>
+    </row>
+    <row r="25" spans="2:37" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="72"/>
+    </row>
+    <row r="26" spans="2:37" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G26" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="2:37" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G27" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B31" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-    </row>
-    <row r="7" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="14"/>
-      <c r="C7" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="116">
-        <v>2</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-    </row>
-    <row r="8" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="14"/>
-      <c r="C8" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="116">
-        <v>3</v>
-      </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="14"/>
-      <c r="C9" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="116">
-        <v>4</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B10" s="14"/>
-      <c r="C10" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="116">
-        <v>5</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="14"/>
-      <c r="C11" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="116">
-        <v>6</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="14"/>
-      <c r="C12" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="116">
-        <v>7</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B13" s="14"/>
-      <c r="C13" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="116">
-        <v>8</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B14" s="14"/>
-      <c r="C14" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="116">
-        <v>9</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B15" s="14"/>
-      <c r="C15" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="116">
-        <v>10</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B16" s="14"/>
-      <c r="C16" s="115" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="116">
-        <v>11</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B17" s="14"/>
-      <c r="C17" s="115" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="116">
-        <v>12</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B18" s="14"/>
-      <c r="C18" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="116">
-        <v>13</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-    </row>
-    <row r="19" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15"/>
-      <c r="C19" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="118">
-        <v>14</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-    </row>
-    <row r="20" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-    </row>
-    <row r="25" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-    </row>
-    <row r="26" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G26" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-    </row>
-    <row r="27" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G27" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B31" s="30" t="s">
+      <c r="F31" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="G31" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="H31" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="I31" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="J31" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="K31" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="L31" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="M31" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J31" s="40" t="s">
+      <c r="N31" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K31" s="30" t="s">
+      <c r="O31" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="L31" s="30" t="s">
+      <c r="P31" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M31" s="30" t="s">
+      <c r="Q31" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N31" s="30" t="s">
+      <c r="R31" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O31" s="30" t="s">
+      <c r="S31" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="P31" s="30" t="s">
+      <c r="T31" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Q31" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="R31" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="S31" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="T31" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.4">
       <c r="C32">
         <v>1</v>
       </c>
@@ -6331,124 +8164,128 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B34" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B35" s="114" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B36" s="14"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="34"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B37" s="14"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="34"/>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B38" s="14"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="34"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B39" s="14"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
-      <c r="J39" s="40" t="s">
+    <row r="33" spans="2:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B34" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B35" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B36" s="12"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B37" s="12"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B38" s="12"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B39" s="12"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="J39" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="K39" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="L39" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="N39" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="K39" s="30" t="s">
+      <c r="O39" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="L39" s="30" t="s">
+      <c r="P39" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="M39" s="30" t="s">
+      <c r="Q39" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="N39" s="30" t="s">
+      <c r="R39" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="O39" s="30" t="s">
+      <c r="S39" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="P39" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q39" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="R39" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="S39" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B40" s="14"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="34"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B41" s="14"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B42" s="14"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34"/>
-    </row>
-    <row r="43" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B40" s="12"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B41" s="12"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B42" s="12"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+    </row>
+    <row r="43" spans="2:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="J7:P7"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE17:AF17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6460,7 +8297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFA2812-7629-4D41-B60B-81D3901BF4BE}">
   <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -6472,339 +8309,339 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="132" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6">
+        <v>26</v>
+      </c>
+      <c r="H4" s="6">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6">
+        <v>28</v>
+      </c>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="6">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="22">
+        <v>9</v>
+      </c>
+      <c r="H6" s="22">
+        <v>10</v>
+      </c>
+      <c r="I6" s="22">
+        <v>11</v>
+      </c>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+    </row>
+    <row r="7" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="119"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="23">
+        <v>22</v>
+      </c>
+      <c r="C9" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="119"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B10" s="23">
+        <v>23</v>
+      </c>
+      <c r="C10" s="111"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="119"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="23">
+        <v>24</v>
+      </c>
+      <c r="C11" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="91" t="s">
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="119"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B12" s="23">
+        <v>25</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="119"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="23">
+        <v>26</v>
+      </c>
+      <c r="C13" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="119"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B14" s="23">
+        <v>27</v>
+      </c>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="119"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="23">
+        <v>28</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="119"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="23">
+        <v>29</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="119"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="23">
+        <v>30</v>
+      </c>
+      <c r="C17" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="119"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="23">
+        <v>31</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="119"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="119"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="23">
+        <v>2</v>
+      </c>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="119"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="23">
+        <v>3</v>
+      </c>
+      <c r="C21" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="8">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8">
-        <v>23</v>
-      </c>
-      <c r="E4" s="8">
-        <v>24</v>
-      </c>
-      <c r="F4" s="8">
-        <v>25</v>
-      </c>
-      <c r="G4" s="8">
-        <v>26</v>
-      </c>
-      <c r="H4" s="8">
-        <v>27</v>
-      </c>
-      <c r="I4" s="8">
-        <v>28</v>
-      </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="8">
-        <v>29</v>
-      </c>
-      <c r="D5" s="8">
-        <v>30</v>
-      </c>
-      <c r="E5" s="8">
-        <v>31</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8">
-        <v>3</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="119"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="23">
         <v>4</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="119"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="23">
         <v>5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="119"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="23">
         <v>6</v>
       </c>
-      <c r="E6" s="8">
+      <c r="C24" s="111"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="119"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="23">
         <v>7</v>
       </c>
-      <c r="F6" s="8">
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="119"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="23">
         <v>8</v>
       </c>
-      <c r="G6" s="24">
-        <v>9</v>
-      </c>
-      <c r="H6" s="24">
-        <v>10</v>
-      </c>
-      <c r="I6" s="24">
-        <v>11</v>
-      </c>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-    </row>
-    <row r="7" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="84"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="25">
-        <v>22</v>
-      </c>
-      <c r="C9" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="84"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="25">
-        <v>23</v>
-      </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="84"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="25">
-        <v>24</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="84"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="25">
-        <v>25</v>
-      </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="84"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="25">
-        <v>26</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="84"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="25">
-        <v>27</v>
-      </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="84"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="25">
-        <v>28</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="84"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="25">
-        <v>29</v>
-      </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="84"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="25">
-        <v>30</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="84"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="25">
-        <v>31</v>
-      </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="84"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="25">
-        <v>1</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="84"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="25">
-        <v>2</v>
-      </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="84"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="25">
-        <v>3</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="84"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="25">
-        <v>4</v>
-      </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="84"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="25">
-        <v>5</v>
-      </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="84"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="25">
-        <v>6</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="84"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="25">
-        <v>7</v>
-      </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="84"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="25">
-        <v>8</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="84"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/Design/맵생성규칙기획서.xlsx
+++ b/Design/맵생성규칙기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\작업공간\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8597D761-ABDB-4D77-9373-CE53D8E4DCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{967A0A68-6CFB-4121-AE27-4287291366BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="236">
   <si>
     <t>Version Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1103,12 +1103,73 @@
     <t>첫 시작시 열려있는 그라운드 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>타일별 에셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 디자인 항목 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 맵 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 관련 에셋 모음</t>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 생성 시 연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲이 맵 바깥을 감싸고 있는 형태로 연출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장 시 숲 배치도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 확장 연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵을 기준으로 5X5를 이루도록 범위를 설정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 바깥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low_poly_Trees</t>
+  </si>
+  <si>
+    <t>마을_에셋</t>
+  </si>
+  <si>
+    <t>22.9.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,6 +1258,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1770,10 +1839,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1901,10 +1971,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1914,12 +1998,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1938,72 +2055,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2046,8 +2131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1120140" y="1211581"/>
-          <a:ext cx="2956560" cy="2903219"/>
+          <a:off x="1121036" y="1227269"/>
+          <a:ext cx="2963732" cy="2944009"/>
           <a:chOff x="190500" y="883920"/>
           <a:chExt cx="3362110" cy="3427095"/>
         </a:xfrm>
@@ -2511,8 +2596,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4861560" y="3764281"/>
-          <a:ext cx="4069080" cy="281941"/>
+          <a:off x="4871421" y="3817621"/>
+          <a:ext cx="4081631" cy="285079"/>
           <a:chOff x="5189220" y="3870960"/>
           <a:chExt cx="3764280" cy="731522"/>
         </a:xfrm>
@@ -3782,6 +3867,919 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>367553</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="화살표: 갈매기형 수장 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3119717" y="23182730"/>
+          <a:ext cx="806824" cy="528916"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33051"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>확장</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89645</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>277905</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>180271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4320986" y="17848730"/>
+          <a:ext cx="3550025" cy="3004153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541877</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>210613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>665181</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>187810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="말풍선: 사각형 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7462630" y="20659107"/>
+          <a:ext cx="2140363" cy="649550"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -35504"/>
+            <a:gd name="adj2" fmla="val -79321"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>맵을 따라  범위에 맞추어 확장된다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>439269</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464111</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>207084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="636493" y="18126635"/>
+          <a:ext cx="2714253" cy="2753061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107574</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>132416</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>63648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304798" y="22044211"/>
+          <a:ext cx="2714253" cy="2753061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457198</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>45800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4016186" y="21934582"/>
+          <a:ext cx="3361767" cy="2844842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>645459</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5728447" y="23084118"/>
+          <a:ext cx="493059" cy="537882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>398931</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>220979</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="연결선: 꺾임 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5706260" y="23537059"/>
+          <a:ext cx="1757531" cy="1246990"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65175"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376516</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>141383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>72695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8641975" y="21961477"/>
+          <a:ext cx="3361767" cy="2844842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="화살표: 갈매기형 수장 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7593105" y="23111012"/>
+          <a:ext cx="806824" cy="528916"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33051"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>시작</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>564776</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>573741</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>215155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53071898-88E5-42EC-43E2-7745D9A4EA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6813176" y="25414943"/>
+          <a:ext cx="2698377" cy="663388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>확장</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>된 맵의 가장자리에 빛 효과 에셋을</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>적용하여 표시한다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>394446</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>573741</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="설명선: 선 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DB642D-C964-DC62-FF8E-514B9F58EA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10676964" y="25253576"/>
+          <a:ext cx="2196353" cy="887507"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val -42045"/>
+            <a:gd name="adj4" fmla="val -28945"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>시작 버튼을 누르면</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>빛 효과는 사라지고 게임이</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>시작된다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>206187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508823</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>215152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65377688-4E88-E43C-377E-E3D6C56A492A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="14634"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2572871" y="14361458"/>
+          <a:ext cx="5529058" cy="2698376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5586,10 +6584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5600,24 +6598,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="90"/>
+      <c r="B1" s="98"/>
       <c r="C1" s="8"/>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -5647,12 +6645,12 @@
         <v>33</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="152"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
@@ -5665,12 +6663,12 @@
         <v>34</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="152"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
@@ -5683,10 +6681,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
@@ -5715,12 +6713,12 @@
         <v>70</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="154"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="21" t="s">
@@ -5733,12 +6731,12 @@
         <v>73</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="26" t="s">
@@ -5751,12 +6749,12 @@
         <v>93</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
@@ -5768,13 +6766,13 @@
       <c r="C11" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="153" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="154"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
@@ -5783,13 +6781,13 @@
       <c r="C12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
+      <c r="F12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -5802,12 +6800,12 @@
         <v>178</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="G13" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -5821,11 +6819,11 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="H14" s="153" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="153"/>
+      <c r="J14" s="154"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
@@ -5836,10 +6834,12 @@
         <v>70</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="88"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="153" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="153"/>
+      <c r="J15" s="154"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
@@ -5848,18 +6848,22 @@
       </c>
       <c r="C16" s="9"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="F17" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="A17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -5869,13 +6873,18 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="F19" s="12"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
@@ -5889,27 +6898,48 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F21" s="12"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G4:J4" location="Tile!B2" display="1.1 타일 타입" xr:uid="{33EC6418-51C9-46B8-BF2E-C2D76C28B69A}"/>
+    <hyperlink ref="G5:J5" location="Tile!B11" display="1.2 타입별 규칙 &amp; 구현기능" xr:uid="{16C16521-0557-4928-9BE3-8119EAD943B9}"/>
+    <hyperlink ref="G8:J8" location="Map!B2" display="2.1 게임 흐름" xr:uid="{9A501872-34D9-4463-A545-ADCA9B0DC3C6}"/>
+    <hyperlink ref="G9:J9" location="Map!B28" display="2.2 맵 생성 규칙" xr:uid="{E20B9BAD-18F7-4AAB-AFAC-EAD2061A8472}"/>
+    <hyperlink ref="G10" location="Map!B54" display="2.3 맵 구성 규칙" xr:uid="{5F515656-C65D-46CD-91AC-3CA2C0ACC5A4}"/>
+    <hyperlink ref="G11:J11" location="Map!B63" display="2.4 맵 디자인" xr:uid="{1358C021-D9B0-4D2A-A421-5B6190DCE26C}"/>
+    <hyperlink ref="H14:J14" location="Pattern!B3" display="3.1.1 GroundPattern" xr:uid="{81CDBFA9-5847-4EF7-A66E-CD22CC2B4415}"/>
+    <hyperlink ref="H15:J15" location="Pattern!B22" display="3.1.2 MapPattern" xr:uid="{B8E3D727-4569-4748-A174-AD4201AE81CF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5918,13 +6948,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425F926-11E9-47C5-A408-0AEA8D0E58FF}">
   <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="8.796875" customWidth="1"/>
@@ -5950,6 +6981,9 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
+      <c r="O4" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="52" t="s">
@@ -5975,9 +7009,11 @@
       <c r="M5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="138"/>
+      <c r="O5" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="88"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="52"/>
@@ -5990,16 +7026,18 @@
       <c r="F6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
       <c r="M6" s="62"/>
-      <c r="O6" s="80"/>
+      <c r="O6" s="80" t="s">
+        <v>10</v>
+      </c>
       <c r="P6" s="80"/>
       <c r="Q6" s="80"/>
     </row>
@@ -6014,16 +7052,18 @@
       <c r="F7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="130"/>
       <c r="M7" s="63"/>
-      <c r="O7" s="80"/>
+      <c r="O7" s="85" t="s">
+        <v>12</v>
+      </c>
       <c r="P7" s="80"/>
       <c r="Q7" s="80"/>
     </row>
@@ -6034,16 +7074,18 @@
       <c r="F8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="127"/>
       <c r="M8" s="65"/>
-      <c r="O8" s="80"/>
+      <c r="O8" s="85" t="s">
+        <v>13</v>
+      </c>
       <c r="P8" s="80"/>
       <c r="Q8" s="80"/>
     </row>
@@ -6071,7 +7113,7 @@
       <c r="F13" s="108"/>
       <c r="G13" s="108"/>
       <c r="H13" s="108"/>
-      <c r="I13" s="117"/>
+      <c r="I13" s="122"/>
       <c r="J13" s="107" t="s">
         <v>16</v>
       </c>
@@ -6085,131 +7127,131 @@
       <c r="B14" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="97"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="115"/>
     </row>
     <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="105"/>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="92" t="s">
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="110"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="112"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="97"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="115"/>
     </row>
     <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="105"/>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="92" t="s">
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="110"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="112"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="97"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="115"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="106"/>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="113"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="118"/>
     </row>
     <row r="20" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="105"/>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
       <c r="J20" s="3" t="s">
         <v>29</v>
       </c>
@@ -6221,7 +7263,12 @@
     </row>
     <row r="23" spans="2:15" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B20"/>
@@ -6238,12 +7285,6 @@
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6252,10 +7293,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E633EF07-05DE-4561-AB1C-45A00CBE1A49}">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:AC114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6274,49 +7315,49 @@
       <c r="I20" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="111" t="s">
+      <c r="J20" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="119"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="133"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I21" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="111" t="s">
+      <c r="J21" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="119"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="133"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="120" t="s">
+      <c r="J22" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="122"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="144"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I23" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="120" t="s">
+      <c r="J23" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="122"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="144"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
@@ -6348,45 +7389,45 @@
       <c r="B30" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
       <c r="J30" s="24"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="115" t="s">
+      <c r="C31" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
       <c r="J31" s="24"/>
     </row>
     <row r="32" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="115" t="s">
+      <c r="C32" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6421,16 +7462,16 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="11"/>
-      <c r="K34" s="123" t="s">
+      <c r="K34" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="113"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="117"/>
+      <c r="R34" s="118"/>
     </row>
     <row r="35" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="13" t="s">
@@ -6443,16 +7484,16 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15"/>
-      <c r="K35" s="124" t="s">
+      <c r="K35" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="110"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="112"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="1"/>
@@ -6492,16 +7533,16 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="7"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="7"/>
@@ -6709,26 +7750,26 @@
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="138" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="115" t="s">
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="J56" s="115"/>
-      <c r="L56" s="133"/>
+      <c r="J56" s="120"/>
+      <c r="L56" s="86"/>
       <c r="M56" s="134" t="s">
         <v>90</v>
       </c>
       <c r="N56" s="134"/>
       <c r="O56" s="134"/>
-      <c r="P56" s="135" t="s">
+      <c r="P56" s="87" t="s">
         <v>211</v>
       </c>
       <c r="Q56" s="134" t="s">
@@ -6739,24 +7780,24 @@
       <c r="T56" s="134"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B57" s="115" t="s">
+      <c r="B57" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="115"/>
-      <c r="L57" s="133"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="120"/>
+      <c r="L57" s="86"/>
       <c r="M57" s="134" t="s">
         <v>214</v>
       </c>
       <c r="N57" s="134"/>
       <c r="O57" s="134"/>
-      <c r="P57" s="135" t="s">
+      <c r="P57" s="87" t="s">
         <v>213</v>
       </c>
       <c r="Q57" s="134" t="s">
@@ -6767,26 +7808,26 @@
       <c r="T57" s="134"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B58" s="125" t="s">
+      <c r="B58" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="115" t="s">
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="J58" s="115"/>
-      <c r="L58" s="133"/>
+      <c r="J58" s="120"/>
+      <c r="L58" s="86"/>
       <c r="M58" s="134" t="s">
         <v>217</v>
       </c>
       <c r="N58" s="134"/>
       <c r="O58" s="134"/>
-      <c r="P58" s="135">
+      <c r="P58" s="87">
         <v>2</v>
       </c>
       <c r="Q58" s="134" t="s">
@@ -6797,25 +7838,25 @@
       <c r="T58" s="134"/>
     </row>
     <row r="59" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="115" t="s">
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="115"/>
-      <c r="M59" s="136" t="s">
+      <c r="J59" s="120"/>
+      <c r="M59" s="141" t="s">
         <v>218</v>
       </c>
-      <c r="N59" s="136"/>
-      <c r="O59" s="136"/>
-      <c r="P59" s="135">
+      <c r="N59" s="141"/>
+      <c r="O59" s="141"/>
+      <c r="P59" s="87">
         <v>5</v>
       </c>
       <c r="Q59" s="134" t="s">
@@ -6826,17 +7867,17 @@
       <c r="T59" s="134"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B60" s="111" t="s">
+      <c r="B60" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="112"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="111"/>
-      <c r="J60" s="119"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="133"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B61" s="1"/>
@@ -6861,7 +7902,9 @@
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -6877,15 +7920,16 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B65" s="90"/>
+      <c r="C65" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="133"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -6893,10 +7937,14 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B66" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="131" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66" s="132"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -6904,10 +7952,14 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B67" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" s="131" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" s="132"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -6915,29 +7967,33 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B68" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="149"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="89"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="F69" s="89"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -6947,7 +8003,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6960,7 +8016,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -6972,13 +8028,892 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B81" s="1"/>
+    <row r="77" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="78" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="11"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B79" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="N79" s="10"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="94"/>
+      <c r="Q79" s="94"/>
+      <c r="R79" s="94"/>
+      <c r="S79" s="94"/>
+      <c r="T79" s="94"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B80" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="94"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="94"/>
+      <c r="G80" s="94"/>
+      <c r="H80" s="94"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="94"/>
+      <c r="K80" s="94"/>
+      <c r="L80" s="94"/>
+      <c r="M80" s="94"/>
+      <c r="N80" s="94"/>
+      <c r="O80" s="95"/>
+      <c r="P80" s="94"/>
+      <c r="Q80" s="94"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="94"/>
+      <c r="T80" s="94"/>
+    </row>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B81" s="12"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="94"/>
+      <c r="G81" s="94"/>
+      <c r="H81" s="94"/>
+      <c r="I81" s="94"/>
+      <c r="J81" s="94"/>
+      <c r="K81" s="94"/>
+      <c r="L81" s="94"/>
+      <c r="M81" s="94"/>
+      <c r="N81" s="94"/>
+      <c r="O81" s="95"/>
+      <c r="P81" s="94"/>
+      <c r="Q81" s="94"/>
+      <c r="R81" s="94"/>
+      <c r="S81" s="94"/>
+      <c r="T81" s="94"/>
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B82" s="12"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94"/>
+      <c r="G82" s="94"/>
+      <c r="H82" s="94"/>
+      <c r="I82" s="94"/>
+      <c r="J82" s="94"/>
+      <c r="K82" s="94"/>
+      <c r="L82" s="94"/>
+      <c r="M82" s="94"/>
+      <c r="N82" s="94"/>
+      <c r="O82" s="95"/>
+      <c r="P82" s="94"/>
+      <c r="Q82" s="94"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="94"/>
+      <c r="T82" s="94"/>
+    </row>
+    <row r="83" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B83" s="12"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="94"/>
+      <c r="H83" s="94"/>
+      <c r="I83" s="94"/>
+      <c r="J83" s="94"/>
+      <c r="K83" s="94"/>
+      <c r="L83" s="94"/>
+      <c r="M83" s="94"/>
+      <c r="N83" s="94"/>
+      <c r="O83" s="95"/>
+      <c r="P83" s="94"/>
+      <c r="Q83" s="94"/>
+      <c r="R83" s="94"/>
+      <c r="S83" s="94"/>
+      <c r="T83" s="94"/>
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B84" s="12"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="94"/>
+      <c r="H84" s="94"/>
+      <c r="I84" s="94"/>
+      <c r="J84" s="94"/>
+      <c r="K84" s="94"/>
+      <c r="L84" s="94"/>
+      <c r="M84" s="94"/>
+      <c r="N84" s="94"/>
+      <c r="O84" s="95"/>
+      <c r="P84" s="94"/>
+      <c r="Q84" s="94"/>
+      <c r="R84" s="94"/>
+      <c r="S84" s="94"/>
+      <c r="T84" s="94"/>
+    </row>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B85" s="12"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="94"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="94"/>
+      <c r="J85" s="94"/>
+      <c r="K85" s="94"/>
+      <c r="L85" s="94"/>
+      <c r="M85" s="94"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="95"/>
+      <c r="P85" s="94"/>
+      <c r="Q85" s="94"/>
+      <c r="R85" s="94"/>
+      <c r="S85" s="94"/>
+      <c r="T85" s="94"/>
+    </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B86" s="12"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="94"/>
+      <c r="F86" s="94"/>
+      <c r="G86" s="94"/>
+      <c r="H86" s="94"/>
+      <c r="I86" s="94"/>
+      <c r="J86" s="94"/>
+      <c r="K86" s="94"/>
+      <c r="L86" s="94"/>
+      <c r="M86" s="94"/>
+      <c r="N86" s="94"/>
+      <c r="O86" s="95"/>
+      <c r="P86" s="94"/>
+      <c r="Q86" s="94"/>
+      <c r="R86" s="94"/>
+      <c r="S86" s="94"/>
+      <c r="T86" s="94"/>
+    </row>
+    <row r="87" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B87" s="12"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="94"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="94"/>
+      <c r="H87" s="94"/>
+      <c r="I87" s="94"/>
+      <c r="J87" s="94"/>
+      <c r="K87" s="94"/>
+      <c r="L87" s="94"/>
+      <c r="M87" s="94"/>
+      <c r="N87" s="94"/>
+      <c r="O87" s="95"/>
+      <c r="P87" s="94"/>
+      <c r="Q87" s="94"/>
+      <c r="R87" s="94"/>
+      <c r="S87" s="94"/>
+      <c r="T87" s="94"/>
+    </row>
+    <row r="88" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B88" s="12"/>
+      <c r="C88" s="94"/>
+      <c r="D88" s="94"/>
+      <c r="E88" s="94"/>
+      <c r="F88" s="94"/>
+      <c r="G88" s="94"/>
+      <c r="H88" s="94"/>
+      <c r="I88" s="94"/>
+      <c r="J88" s="94"/>
+      <c r="K88" s="94"/>
+      <c r="L88" s="94"/>
+      <c r="M88" s="94"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="95"/>
+      <c r="P88" s="94"/>
+      <c r="Q88" s="94"/>
+      <c r="R88" s="94"/>
+      <c r="S88" s="94"/>
+      <c r="T88" s="94"/>
+    </row>
+    <row r="89" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B89" s="12"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="94"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="94"/>
+      <c r="H89" s="94"/>
+      <c r="I89" s="94"/>
+      <c r="J89" s="94"/>
+      <c r="K89" s="94"/>
+      <c r="L89" s="94"/>
+      <c r="M89" s="94"/>
+      <c r="N89" s="94"/>
+      <c r="O89" s="95"/>
+      <c r="P89" s="94"/>
+      <c r="Q89" s="94"/>
+      <c r="R89" s="94"/>
+      <c r="S89" s="94"/>
+      <c r="T89" s="94"/>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B90" s="12"/>
+      <c r="C90" s="94"/>
+      <c r="D90" s="94"/>
+      <c r="E90" s="94"/>
+      <c r="F90" s="94"/>
+      <c r="G90" s="94"/>
+      <c r="H90" s="94"/>
+      <c r="I90" s="94"/>
+      <c r="J90" s="94"/>
+      <c r="K90" s="94"/>
+      <c r="L90" s="94"/>
+      <c r="M90" s="94"/>
+      <c r="N90" s="94"/>
+      <c r="O90" s="95"/>
+      <c r="P90" s="94"/>
+      <c r="Q90" s="94"/>
+      <c r="R90" s="94"/>
+      <c r="S90" s="94"/>
+      <c r="T90" s="94"/>
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B91" s="12"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="94"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="94"/>
+      <c r="H91" s="94"/>
+      <c r="I91" s="94"/>
+      <c r="J91" s="94"/>
+      <c r="K91" s="94"/>
+      <c r="L91" s="94"/>
+      <c r="M91" s="94"/>
+      <c r="N91" s="94"/>
+      <c r="O91" s="95"/>
+      <c r="P91" s="94"/>
+      <c r="Q91" s="94"/>
+      <c r="R91" s="94"/>
+      <c r="S91" s="94"/>
+      <c r="T91" s="94"/>
+    </row>
+    <row r="92" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B92" s="12"/>
+      <c r="C92" s="94"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="94"/>
+      <c r="H92" s="94"/>
+      <c r="I92" s="94"/>
+      <c r="J92" s="94"/>
+      <c r="K92" s="94"/>
+      <c r="L92" s="94"/>
+      <c r="M92" s="94"/>
+      <c r="N92" s="94"/>
+      <c r="O92" s="95"/>
+      <c r="P92" s="94"/>
+      <c r="Q92" s="94"/>
+      <c r="R92" s="94"/>
+      <c r="S92" s="94"/>
+      <c r="T92" s="94"/>
+    </row>
+    <row r="93" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B93" s="12"/>
+      <c r="C93" s="94"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="94"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="94"/>
+      <c r="H93" s="94"/>
+      <c r="I93" s="94"/>
+      <c r="J93" s="94"/>
+      <c r="K93" s="94"/>
+      <c r="L93" s="94"/>
+      <c r="M93" s="94"/>
+      <c r="N93" s="94"/>
+      <c r="O93" s="95"/>
+      <c r="P93" s="94"/>
+      <c r="Q93" s="94"/>
+      <c r="R93" s="94"/>
+      <c r="S93" s="94"/>
+      <c r="T93" s="94"/>
+      <c r="V93" s="93"/>
+      <c r="W93" s="93"/>
+      <c r="X93" s="93"/>
+      <c r="Y93" s="93"/>
+      <c r="Z93" s="93"/>
+      <c r="AA93" s="93"/>
+      <c r="AB93" s="93"/>
+      <c r="AC93" s="93"/>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B94" s="12"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="94"/>
+      <c r="F94" s="94"/>
+      <c r="G94" s="94"/>
+      <c r="H94" s="94"/>
+      <c r="I94" s="94"/>
+      <c r="J94" s="94"/>
+      <c r="K94" s="94"/>
+      <c r="L94" s="94"/>
+      <c r="M94" s="94"/>
+      <c r="N94" s="94"/>
+      <c r="O94" s="95"/>
+      <c r="P94" s="94"/>
+      <c r="Q94" s="94"/>
+      <c r="R94" s="94"/>
+      <c r="S94" s="94"/>
+      <c r="T94" s="94"/>
+      <c r="V94" s="93"/>
+      <c r="W94" s="93"/>
+      <c r="X94" s="93"/>
+      <c r="Y94" s="93"/>
+      <c r="Z94" s="93"/>
+      <c r="AA94" s="93"/>
+      <c r="AB94" s="93"/>
+      <c r="AC94" s="93"/>
+    </row>
+    <row r="95" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="94"/>
+      <c r="Q95" s="94"/>
+      <c r="R95" s="94"/>
+      <c r="S95" s="94"/>
+      <c r="T95" s="94"/>
+      <c r="V95" s="93"/>
+      <c r="W95" s="93"/>
+      <c r="X95" s="93"/>
+      <c r="Y95" s="93"/>
+      <c r="Z95" s="93"/>
+      <c r="AA95" s="93"/>
+      <c r="AB95" s="93"/>
+      <c r="AC95" s="93"/>
+    </row>
+    <row r="96" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B96" s="94"/>
+      <c r="C96" s="94"/>
+      <c r="D96" s="94"/>
+      <c r="E96" s="94"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="94"/>
+      <c r="H96" s="94"/>
+      <c r="I96" s="94"/>
+      <c r="J96" s="94"/>
+      <c r="K96" s="94"/>
+      <c r="L96" s="94"/>
+      <c r="M96" s="94"/>
+      <c r="N96" s="94"/>
+      <c r="O96" s="94"/>
+      <c r="P96" s="94"/>
+      <c r="Q96" s="94"/>
+      <c r="R96" s="94"/>
+      <c r="S96" s="94"/>
+      <c r="T96" s="94"/>
+      <c r="V96" s="93"/>
+      <c r="W96" s="93"/>
+      <c r="X96" s="93"/>
+      <c r="Y96" s="93"/>
+      <c r="Z96" s="93"/>
+      <c r="AA96" s="93"/>
+      <c r="AB96" s="93"/>
+      <c r="AC96" s="93"/>
+    </row>
+    <row r="97" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B97" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="48"/>
+      <c r="V97" s="93"/>
+      <c r="W97" s="93"/>
+      <c r="X97" s="93"/>
+      <c r="Y97" s="93"/>
+      <c r="Z97" s="93"/>
+      <c r="AA97" s="93"/>
+      <c r="AB97" s="93"/>
+      <c r="AC97" s="93"/>
+    </row>
+    <row r="98" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B98" s="40"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="11"/>
+      <c r="V98" s="93"/>
+      <c r="W98" s="93"/>
+      <c r="X98" s="93"/>
+      <c r="Y98" s="93"/>
+      <c r="Z98" s="93"/>
+      <c r="AA98" s="93"/>
+      <c r="AB98" s="93"/>
+      <c r="AC98" s="93"/>
+    </row>
+    <row r="99" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B99" s="12"/>
+      <c r="C99" s="94"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="94"/>
+      <c r="F99" s="94"/>
+      <c r="G99" s="94"/>
+      <c r="H99" s="94"/>
+      <c r="I99" s="94"/>
+      <c r="J99" s="94"/>
+      <c r="K99" s="94"/>
+      <c r="L99" s="94"/>
+      <c r="M99" s="94"/>
+      <c r="N99" s="94"/>
+      <c r="O99" s="94"/>
+      <c r="P99" s="94"/>
+      <c r="Q99" s="94"/>
+      <c r="R99" s="94"/>
+      <c r="S99" s="94"/>
+      <c r="T99" s="95"/>
+      <c r="V99" s="93"/>
+      <c r="W99" s="93"/>
+      <c r="X99" s="93"/>
+      <c r="Y99" s="93"/>
+      <c r="Z99" s="93"/>
+      <c r="AA99" s="93"/>
+      <c r="AB99" s="93"/>
+      <c r="AC99" s="93"/>
+    </row>
+    <row r="100" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B100" s="12"/>
+      <c r="C100" s="94"/>
+      <c r="D100" s="94"/>
+      <c r="E100" s="94"/>
+      <c r="F100" s="94"/>
+      <c r="G100" s="94"/>
+      <c r="H100" s="94"/>
+      <c r="I100" s="94"/>
+      <c r="J100" s="94"/>
+      <c r="K100" s="94"/>
+      <c r="L100" s="94"/>
+      <c r="M100" s="94"/>
+      <c r="N100" s="94"/>
+      <c r="O100" s="94"/>
+      <c r="P100" s="94"/>
+      <c r="Q100" s="94"/>
+      <c r="R100" s="94"/>
+      <c r="S100" s="94"/>
+      <c r="T100" s="95"/>
+      <c r="V100" s="93"/>
+      <c r="W100" s="93"/>
+      <c r="X100" s="93"/>
+      <c r="Y100" s="93"/>
+      <c r="Z100" s="93"/>
+      <c r="AA100" s="93"/>
+      <c r="AB100" s="93"/>
+      <c r="AC100" s="93"/>
+    </row>
+    <row r="101" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B101" s="12"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="94"/>
+      <c r="F101" s="94"/>
+      <c r="G101" s="94"/>
+      <c r="H101" s="94"/>
+      <c r="I101" s="94"/>
+      <c r="J101" s="94"/>
+      <c r="K101" s="94"/>
+      <c r="L101" s="94"/>
+      <c r="M101" s="94"/>
+      <c r="N101" s="94"/>
+      <c r="O101" s="94"/>
+      <c r="P101" s="94"/>
+      <c r="Q101" s="94"/>
+      <c r="R101" s="94"/>
+      <c r="S101" s="94"/>
+      <c r="T101" s="95"/>
+      <c r="V101" s="93"/>
+      <c r="W101" s="93"/>
+      <c r="X101" s="93"/>
+      <c r="Y101" s="93"/>
+      <c r="Z101" s="93"/>
+      <c r="AA101" s="93"/>
+      <c r="AB101" s="93"/>
+      <c r="AC101" s="93"/>
+    </row>
+    <row r="102" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B102" s="12"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="94"/>
+      <c r="G102" s="94"/>
+      <c r="H102" s="94"/>
+      <c r="I102" s="94"/>
+      <c r="J102" s="94"/>
+      <c r="K102" s="94"/>
+      <c r="L102" s="94"/>
+      <c r="M102" s="94"/>
+      <c r="N102" s="94"/>
+      <c r="O102" s="94"/>
+      <c r="P102" s="94"/>
+      <c r="Q102" s="94"/>
+      <c r="R102" s="94"/>
+      <c r="S102" s="94"/>
+      <c r="T102" s="95"/>
+      <c r="V102" s="93"/>
+      <c r="W102" s="93"/>
+      <c r="X102" s="93"/>
+      <c r="Y102" s="93"/>
+      <c r="Z102" s="93"/>
+      <c r="AA102" s="93"/>
+      <c r="AB102" s="93"/>
+      <c r="AC102" s="93"/>
+    </row>
+    <row r="103" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B103" s="12"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="94"/>
+      <c r="G103" s="94"/>
+      <c r="H103" s="94"/>
+      <c r="I103" s="94"/>
+      <c r="J103" s="94"/>
+      <c r="K103" s="94"/>
+      <c r="L103" s="94"/>
+      <c r="M103" s="94"/>
+      <c r="N103" s="94"/>
+      <c r="O103" s="94"/>
+      <c r="P103" s="94"/>
+      <c r="Q103" s="94"/>
+      <c r="R103" s="94"/>
+      <c r="S103" s="94"/>
+      <c r="T103" s="95"/>
+      <c r="V103" s="93"/>
+      <c r="W103" s="93"/>
+      <c r="X103" s="93"/>
+      <c r="Y103" s="93"/>
+      <c r="Z103" s="93"/>
+      <c r="AA103" s="93"/>
+      <c r="AB103" s="93"/>
+      <c r="AC103" s="93"/>
+    </row>
+    <row r="104" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B104" s="12"/>
+      <c r="C104" s="94"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="94"/>
+      <c r="F104" s="94"/>
+      <c r="G104" s="94"/>
+      <c r="H104" s="94"/>
+      <c r="I104" s="94"/>
+      <c r="J104" s="94"/>
+      <c r="K104" s="94"/>
+      <c r="L104" s="94"/>
+      <c r="M104" s="94"/>
+      <c r="N104" s="94"/>
+      <c r="O104" s="94"/>
+      <c r="P104" s="94"/>
+      <c r="Q104" s="94"/>
+      <c r="R104" s="94"/>
+      <c r="S104" s="94"/>
+      <c r="T104" s="95"/>
+      <c r="V104" s="93"/>
+      <c r="W104" s="93"/>
+      <c r="X104" s="93"/>
+      <c r="Y104" s="93"/>
+      <c r="Z104" s="93"/>
+      <c r="AA104" s="93"/>
+      <c r="AB104" s="93"/>
+      <c r="AC104" s="93"/>
+    </row>
+    <row r="105" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B105" s="12"/>
+      <c r="C105" s="94"/>
+      <c r="D105" s="94"/>
+      <c r="E105" s="94"/>
+      <c r="F105" s="94"/>
+      <c r="G105" s="94"/>
+      <c r="H105" s="94"/>
+      <c r="I105" s="94"/>
+      <c r="J105" s="94"/>
+      <c r="K105" s="94"/>
+      <c r="L105" s="94"/>
+      <c r="M105" s="94"/>
+      <c r="N105" s="94"/>
+      <c r="O105" s="94"/>
+      <c r="P105" s="94"/>
+      <c r="Q105" s="94"/>
+      <c r="R105" s="94"/>
+      <c r="S105" s="94"/>
+      <c r="T105" s="95"/>
+      <c r="V105" s="93"/>
+      <c r="W105" s="93"/>
+      <c r="X105" s="93"/>
+      <c r="Y105" s="93"/>
+      <c r="Z105" s="93"/>
+      <c r="AA105" s="93"/>
+      <c r="AB105" s="93"/>
+      <c r="AC105" s="93"/>
+    </row>
+    <row r="106" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B106" s="12"/>
+      <c r="C106" s="94"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="94"/>
+      <c r="F106" s="94"/>
+      <c r="G106" s="94"/>
+      <c r="H106" s="94"/>
+      <c r="I106" s="94"/>
+      <c r="J106" s="94"/>
+      <c r="K106" s="94"/>
+      <c r="L106" s="94"/>
+      <c r="M106" s="94"/>
+      <c r="N106" s="94"/>
+      <c r="O106" s="94"/>
+      <c r="P106" s="94"/>
+      <c r="Q106" s="94"/>
+      <c r="R106" s="94"/>
+      <c r="S106" s="94"/>
+      <c r="T106" s="95"/>
+      <c r="V106" s="93"/>
+      <c r="W106" s="93"/>
+      <c r="X106" s="93"/>
+      <c r="Y106" s="93"/>
+      <c r="Z106" s="93"/>
+      <c r="AA106" s="93"/>
+      <c r="AB106" s="93"/>
+      <c r="AC106" s="93"/>
+    </row>
+    <row r="107" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B107" s="12"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="94"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="94"/>
+      <c r="H107" s="94"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="94"/>
+      <c r="K107" s="94"/>
+      <c r="L107" s="94"/>
+      <c r="M107" s="94"/>
+      <c r="N107" s="94"/>
+      <c r="O107" s="94"/>
+      <c r="P107" s="94"/>
+      <c r="Q107" s="94"/>
+      <c r="R107" s="94"/>
+      <c r="S107" s="94"/>
+      <c r="T107" s="95"/>
+      <c r="V107" s="93"/>
+      <c r="W107" s="93"/>
+      <c r="X107" s="93"/>
+      <c r="Y107" s="93"/>
+      <c r="Z107" s="93"/>
+      <c r="AA107" s="93"/>
+      <c r="AB107" s="93"/>
+      <c r="AC107" s="93"/>
+    </row>
+    <row r="108" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B108" s="12"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="94"/>
+      <c r="G108" s="94"/>
+      <c r="H108" s="94"/>
+      <c r="I108" s="94"/>
+      <c r="J108" s="94"/>
+      <c r="K108" s="94"/>
+      <c r="L108" s="94"/>
+      <c r="M108" s="94"/>
+      <c r="N108" s="94"/>
+      <c r="O108" s="94"/>
+      <c r="P108" s="94"/>
+      <c r="Q108" s="94"/>
+      <c r="R108" s="94"/>
+      <c r="S108" s="94"/>
+      <c r="T108" s="95"/>
+    </row>
+    <row r="109" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B109" s="12"/>
+      <c r="C109" s="94"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="94"/>
+      <c r="F109" s="94"/>
+      <c r="G109" s="94"/>
+      <c r="H109" s="94"/>
+      <c r="I109" s="94"/>
+      <c r="J109" s="94"/>
+      <c r="K109" s="94"/>
+      <c r="L109" s="94"/>
+      <c r="M109" s="94"/>
+      <c r="N109" s="94"/>
+      <c r="O109" s="94"/>
+      <c r="P109" s="94"/>
+      <c r="Q109" s="94"/>
+      <c r="R109" s="94"/>
+      <c r="S109" s="94"/>
+      <c r="T109" s="95"/>
+    </row>
+    <row r="110" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B110" s="12"/>
+      <c r="C110" s="94"/>
+      <c r="D110" s="94"/>
+      <c r="E110" s="94"/>
+      <c r="F110" s="94"/>
+      <c r="G110" s="94"/>
+      <c r="H110" s="94"/>
+      <c r="I110" s="94"/>
+      <c r="J110" s="94"/>
+      <c r="K110" s="94"/>
+      <c r="L110" s="94"/>
+      <c r="M110" s="94"/>
+      <c r="N110" s="94"/>
+      <c r="O110" s="94"/>
+      <c r="P110" s="94"/>
+      <c r="Q110" s="94"/>
+      <c r="R110" s="94"/>
+      <c r="S110" s="94"/>
+      <c r="T110" s="95"/>
+    </row>
+    <row r="111" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="15"/>
+    </row>
+    <row r="112" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B112" s="94"/>
+      <c r="C112" s="94"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="94"/>
+      <c r="F112" s="94"/>
+      <c r="G112" s="94"/>
+      <c r="H112" s="94"/>
+      <c r="I112" s="94"/>
+      <c r="J112" s="94"/>
+      <c r="K112" s="94"/>
+      <c r="L112" s="94"/>
+      <c r="M112" s="94"/>
+      <c r="N112" s="94"/>
+      <c r="O112" s="94"/>
+      <c r="P112" s="94"/>
+      <c r="Q112" s="94"/>
+      <c r="R112" s="94"/>
+      <c r="S112" s="94"/>
+      <c r="T112" s="94"/>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B113" s="94"/>
+      <c r="C113" s="94"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="94"/>
+      <c r="F113" s="94"/>
+      <c r="G113" s="94"/>
+      <c r="H113" s="94"/>
+      <c r="I113" s="94"/>
+      <c r="J113" s="94"/>
+      <c r="K113" s="94"/>
+      <c r="L113" s="94"/>
+      <c r="M113" s="94"/>
+      <c r="N113" s="94"/>
+      <c r="O113" s="94"/>
+      <c r="P113" s="94"/>
+      <c r="Q113" s="94"/>
+      <c r="R113" s="94"/>
+      <c r="S113" s="94"/>
+      <c r="T113" s="94"/>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B114" s="94"/>
+      <c r="C114" s="94"/>
+      <c r="D114" s="94"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="94"/>
+      <c r="G114" s="94"/>
+      <c r="H114" s="94"/>
+      <c r="I114" s="94"/>
+      <c r="J114" s="94"/>
+      <c r="K114" s="94"/>
+      <c r="L114" s="94"/>
+      <c r="M114" s="94"/>
+      <c r="N114" s="94"/>
+      <c r="O114" s="94"/>
+      <c r="P114" s="94"/>
+      <c r="Q114" s="94"/>
+      <c r="R114" s="94"/>
+      <c r="S114" s="94"/>
+      <c r="T114" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q59:T59"/>
+  <mergeCells count="31">
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="K34:R34"/>
     <mergeCell ref="K35:R35"/>
     <mergeCell ref="B59:H59"/>
@@ -6992,29 +8927,31 @@
     <mergeCell ref="M59:O59"/>
     <mergeCell ref="Q57:T57"/>
     <mergeCell ref="Q58:T58"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C30:I30"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q59:T59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="B60:H60"/>
     <mergeCell ref="I60:J60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C66" r:id="rId1" xr:uid="{CA150B0E-E8DA-490D-BF7E-BFD7CB724ADF}"/>
+    <hyperlink ref="C67" r:id="rId2" xr:uid="{7E498AA3-192F-4700-AEBC-DAABFC0E2020}"/>
+    <hyperlink ref="C68" r:id="rId3" xr:uid="{14770CF4-67DA-4718-A393-F723F768E742}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="1035" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+        <oleObject progId="PBrush" shapeId="1035" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -7033,13 +8970,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="1035" r:id="rId3"/>
+        <oleObject progId="PBrush" shapeId="1035" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="1036" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="PBrush" shapeId="1036" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -7058,7 +8995,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="1036" r:id="rId5"/>
+        <oleObject progId="PBrush" shapeId="1036" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -7070,7 +9007,7 @@
   <dimension ref="B2:AK43"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7265,15 +9202,15 @@
       <c r="I7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="129" t="s">
+      <c r="J7" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="131"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="147"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="19"/>
       <c r="S7" s="74"/>
@@ -7669,10 +9606,10 @@
       <c r="AD16" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="AE16" s="85" t="s">
+      <c r="AE16" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="AF16" s="85"/>
+      <c r="AF16" s="102"/>
       <c r="AG16" s="72"/>
       <c r="AH16" s="72"/>
       <c r="AI16" s="72"/>
@@ -7713,11 +9650,11 @@
       <c r="AD17" s="72">
         <v>10</v>
       </c>
-      <c r="AE17" s="85">
+      <c r="AE17" s="102">
         <f>10*AD17</f>
         <v>100</v>
       </c>
-      <c r="AF17" s="85"/>
+      <c r="AF17" s="102"/>
       <c r="AG17" s="72"/>
       <c r="AH17" s="72"/>
       <c r="AI17" s="72"/>
@@ -8298,7 +10235,7 @@
   <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8311,11 +10248,11 @@
       <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
@@ -8341,12 +10278,12 @@
       <c r="I3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
@@ -8373,10 +10310,10 @@
       <c r="I4" s="6">
         <v>28</v>
       </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
@@ -8403,10 +10340,10 @@
       <c r="I5" s="6">
         <v>4</v>
       </c>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
@@ -8433,218 +10370,228 @@
       <c r="I6" s="22">
         <v>11</v>
       </c>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
     </row>
     <row r="7" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="119"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="133"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B9" s="23">
         <v>22</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="119"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="133"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B10" s="23">
         <v>23</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="119"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="133"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B11" s="23">
         <v>24</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="119"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="133"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B12" s="23">
         <v>25</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="119"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="133"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B13" s="23">
         <v>26</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="119"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="133"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" s="23">
         <v>27</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="119"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="133"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B15" s="23">
         <v>28</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="119"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="133"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16" s="23">
         <v>29</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="119"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="133"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="23">
         <v>30</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="119"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="133"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="23">
         <v>31</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="119"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="133"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="23">
         <v>1</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="119"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="133"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="23">
         <v>2</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="119"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="133"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="23">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="119"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="133"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="23">
         <v>4</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="119"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="133"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="23">
         <v>5</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="119"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="133"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="23">
         <v>6</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="119"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="133"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="23">
         <v>7</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="119"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="133"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="23">
         <v>8</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="119"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:N10"/>
@@ -8656,16 +10603,6 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/맵생성규칙기획서.xlsx
+++ b/Design/맵생성규칙기획서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\작업공간\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{967A0A68-6CFB-4121-AE27-4287291366BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D3D23E-49F1-41B7-B390-2BDD0FD22310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="263">
   <si>
     <t>Version Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1162,6 +1162,114 @@
   </si>
   <si>
     <t>22.9.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 체크리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1.5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크리스트 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.9.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용형 그라운드 패턴 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본형 패턴 기반 맵 생성기 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 기믹 요소 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 진행 체크리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 채굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물상자 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물상자 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채굴 연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 생성 연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작 완료, 미적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1843,7 +1951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1989,6 +2097,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1998,10 +2120,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2020,12 +2164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -2036,55 +2175,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4530,7 +4666,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53071898-88E5-42EC-43E2-7745D9A4EA04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4614,7 +4750,7 @@
         <xdr:cNvPr id="22" name="설명선: 선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DB642D-C964-DC62-FF8E-514B9F58EA9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4741,7 +4877,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65377688-4E88-E43C-377E-E3D6C56A492A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6586,8 +6722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6598,24 +6734,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="112"/>
       <c r="C1" s="8"/>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -6645,12 +6781,12 @@
         <v>33</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="152"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
@@ -6663,12 +6799,12 @@
         <v>34</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="151" t="s">
+      <c r="G5" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="152"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
@@ -6681,10 +6817,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
@@ -6713,12 +6849,12 @@
         <v>70</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="153" t="s">
+      <c r="G8" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="21" t="s">
@@ -6731,12 +6867,12 @@
         <v>73</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="153" t="s">
+      <c r="G9" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="26" t="s">
@@ -6749,12 +6885,12 @@
         <v>93</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="153" t="s">
+      <c r="G10" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="154"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="106"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
@@ -6767,12 +6903,12 @@
         <v>168</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="153" t="s">
+      <c r="G11" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="106"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
@@ -6800,12 +6936,12 @@
         <v>178</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="102" t="s">
+      <c r="G13" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="108"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -6819,11 +6955,11 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="153" t="s">
+      <c r="H14" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="153"/>
-      <c r="J14" s="154"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="106"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
@@ -6835,11 +6971,11 @@
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="153" t="s">
+      <c r="H15" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="154"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="106"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
@@ -6848,10 +6984,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="101"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="110"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
@@ -6870,9 +7006,15 @@
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>239</v>
+      </c>
       <c r="F18" s="12" t="s">
         <v>48</v>
       </c>
@@ -6886,7 +7028,9 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="24" t="s">
+        <v>236</v>
+      </c>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
@@ -6914,6 +7058,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G13:J13"/>
@@ -6923,11 +7072,6 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7026,14 +7170,14 @@
       <c r="F6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="127"/>
       <c r="M6" s="62"/>
       <c r="O6" s="80" t="s">
         <v>10</v>
@@ -7052,14 +7196,14 @@
       <c r="F7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="128" t="s">
+      <c r="G7" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="130"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="63"/>
       <c r="O7" s="85" t="s">
         <v>12</v>
@@ -7074,14 +7218,14 @@
       <c r="F8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="125" t="s">
+      <c r="G8" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="127"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="124"/>
       <c r="M8" s="65"/>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -7105,153 +7249,153 @@
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="107" t="s">
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="109"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="133"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="115"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="121"/>
     </row>
     <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="105"/>
-      <c r="C15" s="110" t="s">
+      <c r="B15" s="129"/>
+      <c r="C15" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="110" t="s">
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="112"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="134"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="115"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
     </row>
     <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="105"/>
-      <c r="C17" s="119" t="s">
+      <c r="B17" s="129"/>
+      <c r="C17" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="110" t="s">
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="112"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="134"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="115"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="106"/>
-      <c r="C19" s="120" t="s">
+      <c r="B19" s="130"/>
+      <c r="C19" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="118"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="137"/>
     </row>
     <row r="20" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="105"/>
-      <c r="C20" s="119" t="s">
+      <c r="B20" s="129"/>
+      <c r="C20" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
       <c r="J20" s="3" t="s">
         <v>29</v>
       </c>
@@ -7264,11 +7408,6 @@
     <row r="23" spans="2:15" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G6:L6"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B20"/>
@@ -7285,6 +7424,11 @@
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7315,49 +7459,49 @@
       <c r="I20" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="116" t="s">
+      <c r="J20" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="133"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="145"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I21" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="116" t="s">
+      <c r="J21" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="133"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="145"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="142" t="s">
+      <c r="J22" s="146" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="144"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="148"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I23" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="142" t="s">
+      <c r="J23" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="144"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="148"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
@@ -7389,45 +7533,45 @@
       <c r="B30" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
       <c r="J30" s="24"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
       <c r="J31" s="24"/>
     </row>
     <row r="32" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7462,16 +7606,16 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="11"/>
-      <c r="K34" s="135" t="s">
+      <c r="K34" s="149" t="s">
         <v>180</v>
       </c>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="118"/>
+      <c r="L34" s="136"/>
+      <c r="M34" s="136"/>
+      <c r="N34" s="136"/>
+      <c r="O34" s="136"/>
+      <c r="P34" s="136"/>
+      <c r="Q34" s="136"/>
+      <c r="R34" s="137"/>
     </row>
     <row r="35" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="13" t="s">
@@ -7484,16 +7628,16 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15"/>
-      <c r="K35" s="136" t="s">
+      <c r="K35" s="150" t="s">
         <v>181</v>
       </c>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="112"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="134"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="1"/>
@@ -7533,16 +7677,16 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="7"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="102"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="7"/>
@@ -7750,134 +7894,134 @@
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B56" s="138" t="s">
+      <c r="B56" s="152" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="139"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="139"/>
-      <c r="F56" s="139"/>
-      <c r="G56" s="139"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="120" t="s">
+      <c r="C56" s="153"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="153"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="153"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="J56" s="120"/>
+      <c r="J56" s="139"/>
       <c r="L56" s="86"/>
-      <c r="M56" s="134" t="s">
+      <c r="M56" s="155" t="s">
         <v>90</v>
       </c>
-      <c r="N56" s="134"/>
-      <c r="O56" s="134"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="155"/>
       <c r="P56" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="Q56" s="134" t="s">
+      <c r="Q56" s="155" t="s">
         <v>212</v>
       </c>
-      <c r="R56" s="134"/>
-      <c r="S56" s="134"/>
-      <c r="T56" s="134"/>
+      <c r="R56" s="155"/>
+      <c r="S56" s="155"/>
+      <c r="T56" s="155"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B57" s="120" t="s">
+      <c r="B57" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="120"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="120"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="139"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="139"/>
+      <c r="I57" s="139"/>
+      <c r="J57" s="139"/>
       <c r="L57" s="86"/>
-      <c r="M57" s="134" t="s">
+      <c r="M57" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="N57" s="134"/>
-      <c r="O57" s="134"/>
+      <c r="N57" s="155"/>
+      <c r="O57" s="155"/>
       <c r="P57" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="Q57" s="134" t="s">
+      <c r="Q57" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="R57" s="134"/>
-      <c r="S57" s="134"/>
-      <c r="T57" s="134"/>
+      <c r="R57" s="155"/>
+      <c r="S57" s="155"/>
+      <c r="T57" s="155"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B58" s="137" t="s">
+      <c r="B58" s="151" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="137"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="120" t="s">
+      <c r="C58" s="151"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="151"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="J58" s="120"/>
+      <c r="J58" s="139"/>
       <c r="L58" s="86"/>
-      <c r="M58" s="134" t="s">
+      <c r="M58" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="N58" s="134"/>
-      <c r="O58" s="134"/>
+      <c r="N58" s="155"/>
+      <c r="O58" s="155"/>
       <c r="P58" s="87">
         <v>2</v>
       </c>
-      <c r="Q58" s="134" t="s">
+      <c r="Q58" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="R58" s="134"/>
-      <c r="S58" s="134"/>
-      <c r="T58" s="134"/>
+      <c r="R58" s="155"/>
+      <c r="S58" s="155"/>
+      <c r="T58" s="155"/>
     </row>
     <row r="59" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="137" t="s">
+      <c r="B59" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="120" t="s">
+      <c r="C59" s="151"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="151"/>
+      <c r="F59" s="151"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="120"/>
-      <c r="M59" s="141" t="s">
+      <c r="J59" s="139"/>
+      <c r="M59" s="156" t="s">
         <v>218</v>
       </c>
-      <c r="N59" s="141"/>
-      <c r="O59" s="141"/>
+      <c r="N59" s="156"/>
+      <c r="O59" s="156"/>
       <c r="P59" s="87">
         <v>5</v>
       </c>
-      <c r="Q59" s="134" t="s">
+      <c r="Q59" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="R59" s="134"/>
-      <c r="S59" s="134"/>
-      <c r="T59" s="134"/>
+      <c r="R59" s="155"/>
+      <c r="S59" s="155"/>
+      <c r="T59" s="155"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="133"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="136"/>
+      <c r="H60" s="145"/>
+      <c r="I60" s="135"/>
+      <c r="J60" s="145"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B61" s="1"/>
@@ -7926,10 +8070,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B65" s="90"/>
-      <c r="C65" s="116" t="s">
+      <c r="C65" s="135" t="s">
         <v>225</v>
       </c>
-      <c r="D65" s="133"/>
+      <c r="D65" s="145"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -7941,10 +8085,10 @@
       <c r="B66" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="131" t="s">
+      <c r="C66" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="D66" s="132"/>
+      <c r="D66" s="144"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -7956,10 +8100,10 @@
       <c r="B67" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="C67" s="131" t="s">
+      <c r="C67" s="143" t="s">
         <v>233</v>
       </c>
-      <c r="D67" s="132"/>
+      <c r="D67" s="144"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -7971,10 +8115,10 @@
       <c r="B68" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="150" t="s">
+      <c r="C68" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="D68" s="149"/>
+      <c r="D68" s="103"/>
       <c r="E68" s="1"/>
       <c r="F68" s="89"/>
       <c r="G68" s="1"/>
@@ -8906,6 +9050,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="Q57:T57"/>
+    <mergeCell ref="Q58:T58"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="J20:N20"/>
     <mergeCell ref="J21:N21"/>
@@ -8922,21 +9081,6 @@
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="C39:L39"/>
     <mergeCell ref="M56:O56"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="Q57:T57"/>
-    <mergeCell ref="Q58:T58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I60:J60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9202,15 +9346,15 @@
       <c r="I7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="145" t="s">
+      <c r="J7" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="147"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="159"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="19"/>
       <c r="S7" s="74"/>
@@ -9606,10 +9750,10 @@
       <c r="AD16" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="AE16" s="102" t="s">
+      <c r="AE16" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="AF16" s="102"/>
+      <c r="AF16" s="107"/>
       <c r="AG16" s="72"/>
       <c r="AH16" s="72"/>
       <c r="AI16" s="72"/>
@@ -9650,11 +9794,11 @@
       <c r="AD17" s="72">
         <v>10</v>
       </c>
-      <c r="AE17" s="102">
+      <c r="AE17" s="107">
         <f>10*AD17</f>
         <v>100</v>
       </c>
-      <c r="AF17" s="102"/>
+      <c r="AF17" s="107"/>
       <c r="AG17" s="72"/>
       <c r="AH17" s="72"/>
       <c r="AI17" s="72"/>
@@ -10232,30 +10376,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFA2812-7629-4D41-B60B-81D3901BF4BE}">
-  <dimension ref="B2:N26"/>
+  <dimension ref="B1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="102" t="s">
+      <c r="K2" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
         <v>52</v>
@@ -10278,14 +10424,14 @@
       <c r="I3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="164"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>49</v>
       </c>
@@ -10310,12 +10456,12 @@
       <c r="I4" s="6">
         <v>28</v>
       </c>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K4" s="163"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="164"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>50</v>
       </c>
@@ -10340,12 +10486,12 @@
       <c r="I5" s="6">
         <v>4</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K5" s="163"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="164"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
@@ -10370,228 +10516,591 @@
       <c r="I6" s="22">
         <v>11</v>
       </c>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-    </row>
-    <row r="7" spans="2:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K6" s="163"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="164"/>
+    </row>
+    <row r="7" spans="2:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="163"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="164"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="133"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="145"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="164"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="23">
         <v>22</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="133"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="145"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="164"/>
+    </row>
+    <row r="10" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="23">
         <v>23</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="133"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C10" s="135"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="145"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="167"/>
+    </row>
+    <row r="11" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="23">
         <v>24</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="133"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="145"/>
+    </row>
+    <row r="12" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="23">
         <v>25</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="133"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C12" s="135"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="145"/>
+      <c r="K12" s="161" t="s">
+        <v>249</v>
+      </c>
+      <c r="L12" s="162"/>
+      <c r="M12" s="168"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="23">
         <v>26</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="133"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="145"/>
+      <c r="K13" s="169" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="P13" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="121"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="23">
         <v>27</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="133"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C14" s="135"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="145"/>
+      <c r="K14" s="170" t="s">
+        <v>241</v>
+      </c>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="137"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="23">
         <v>28</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="133"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="145"/>
+      <c r="K15" s="170" t="s">
+        <v>240</v>
+      </c>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="137"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="23">
         <v>29</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="133"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C16" s="135"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="145"/>
+      <c r="K16" s="149" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="137"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B17" s="23">
         <v>30</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="133"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="145"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="139" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="137"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="23">
         <v>31</v>
       </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="133"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C18" s="135"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="145"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="139" t="s">
+        <v>246</v>
+      </c>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="137"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" s="23">
         <v>1</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="133"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="145"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="137"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B20" s="23">
         <v>2</v>
       </c>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="133"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C20" s="135"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="145"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="137"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" s="23">
         <v>3</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="133"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="145"/>
+      <c r="K21" s="149" t="s">
+        <v>244</v>
+      </c>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="137"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" s="23">
         <v>4</v>
       </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="133"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C22" s="135"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="145"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="139" t="s">
+        <v>254</v>
+      </c>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="137"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="23">
         <v>5</v>
       </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="133"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C23" s="135"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="145"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="139" t="s">
+        <v>252</v>
+      </c>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="137"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="23">
         <v>6</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="133"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="23">
+      <c r="C24" s="135"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="145"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="139" t="s">
+        <v>255</v>
+      </c>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="137"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B25" s="23"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="139" t="s">
+        <v>253</v>
+      </c>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
+      <c r="O25" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="137"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B26" s="23"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="102"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="139" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="137"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B27" s="23">
         <v>7</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="133"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="23">
+      <c r="C27" s="135"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="145"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="139" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
+      <c r="O27" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="137"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B28" s="23">
         <v>8</v>
       </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="133"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="145"/>
+      <c r="K28" s="149" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="137"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K29" s="52"/>
+      <c r="L29" s="139" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="137"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K30" s="52"/>
+      <c r="L30" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="137"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K31" s="52"/>
+      <c r="L31" s="139" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="137"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K32" s="52"/>
+      <c r="L32" s="139" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="137"/>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K33" s="52"/>
+      <c r="L33" s="139" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" s="139"/>
+      <c r="N33" s="139"/>
+      <c r="O33" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="137"/>
+    </row>
+    <row r="34" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K34" s="52"/>
+      <c r="L34" s="139" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="137"/>
+    </row>
+    <row r="35" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K35" s="52"/>
+      <c r="L35" s="139" t="s">
+        <v>247</v>
+      </c>
+      <c r="M35" s="139"/>
+      <c r="N35" s="139"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="135"/>
+      <c r="Q35" s="137"/>
+    </row>
+    <row r="36" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K36" s="52"/>
+      <c r="L36" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="M36" s="139"/>
+      <c r="N36" s="139"/>
+      <c r="O36" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P36" s="135"/>
+      <c r="Q36" s="137"/>
+    </row>
+    <row r="37" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K37" s="149" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="136"/>
+      <c r="Q37" s="137"/>
+    </row>
+    <row r="38" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K38" s="52"/>
+      <c r="L38" s="135" t="s">
+        <v>259</v>
+      </c>
+      <c r="M38" s="136"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="P38" s="139" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q38" s="171"/>
+    </row>
+    <row r="39" spans="11:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K39" s="54"/>
+      <c r="L39" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="M39" s="117"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="172"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
+  <mergeCells count="72">
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:N10"/>
@@ -10603,6 +11112,20 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/맵생성규칙기획서.xlsx
+++ b/Design/맵생성규칙기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D3D23E-49F1-41B7-B390-2BDD0FD22310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E23BC8-3067-4213-A579-FFC99CA1A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="266">
   <si>
     <t>Version Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1265,11 +1265,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작 완료, 미적용</t>
+    <t>ver1.5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발일정 조정, 체크리스트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.9.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1951,7 +1963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -2105,12 +2117,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2122,12 +2130,47 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2146,38 +2189,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2187,21 +2207,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2219,8 +2235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6722,8 +6737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6734,24 +6749,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="108"/>
       <c r="C1" s="8"/>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="111"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -6781,12 +6796,12 @@
         <v>33</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
@@ -6799,12 +6814,12 @@
         <v>34</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
@@ -6817,10 +6832,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
@@ -6849,12 +6864,12 @@
         <v>70</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="21" t="s">
@@ -6867,12 +6882,12 @@
         <v>73</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="113"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="26" t="s">
@@ -6885,12 +6900,12 @@
         <v>93</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
@@ -6903,12 +6918,12 @@
         <v>168</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="105" t="s">
+      <c r="G11" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="106"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
@@ -6936,12 +6951,12 @@
         <v>178</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="108"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -6955,11 +6970,11 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="105" t="s">
+      <c r="H14" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="106"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
@@ -6971,11 +6986,11 @@
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="105" t="s">
+      <c r="H15" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="105"/>
-      <c r="J15" s="106"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="113"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
@@ -6984,10 +6999,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="110"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="117"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
@@ -7024,9 +7039,15 @@
       <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="105" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="105" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>263</v>
+      </c>
       <c r="F19" s="12"/>
       <c r="G19" s="24" t="s">
         <v>236</v>
@@ -7058,11 +7079,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G13:J13"/>
@@ -7072,6 +7088,11 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H15:J15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7170,14 +7191,14 @@
       <c r="F6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="127"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="144"/>
       <c r="M6" s="62"/>
       <c r="O6" s="80" t="s">
         <v>10</v>
@@ -7196,14 +7217,14 @@
       <c r="F7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="144"/>
       <c r="M7" s="63"/>
       <c r="O7" s="85" t="s">
         <v>12</v>
@@ -7218,14 +7239,14 @@
       <c r="F8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="122" t="s">
+      <c r="G8" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="124"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="141"/>
       <c r="M8" s="65"/>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -7249,153 +7270,153 @@
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="131" t="s">
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="133"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="123"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="121"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="129"/>
     </row>
     <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="129"/>
-      <c r="C15" s="116" t="s">
+      <c r="B15" s="119"/>
+      <c r="C15" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="116" t="s">
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="134"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="126"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="121"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="129"/>
     </row>
     <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="129"/>
-      <c r="C17" s="138" t="s">
+      <c r="B17" s="119"/>
+      <c r="C17" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="116" t="s">
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="134"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="126"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="121"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="129"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="130"/>
-      <c r="C19" s="139" t="s">
+      <c r="B19" s="120"/>
+      <c r="C19" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="137"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="132"/>
     </row>
     <row r="20" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="129"/>
-      <c r="C20" s="138" t="s">
+      <c r="B20" s="119"/>
+      <c r="C20" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
       <c r="J20" s="3" t="s">
         <v>29</v>
       </c>
@@ -7408,6 +7429,11 @@
     <row r="23" spans="2:15" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B20"/>
@@ -7424,11 +7450,6 @@
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7459,49 +7480,49 @@
       <c r="I20" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="135" t="s">
+      <c r="J20" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="145"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="146"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I21" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="135" t="s">
+      <c r="J21" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="145"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="146"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="146" t="s">
+      <c r="J22" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="148"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="152"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I23" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="146" t="s">
+      <c r="J23" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="148"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="152"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
@@ -7533,45 +7554,45 @@
       <c r="B30" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
       <c r="J30" s="24"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="139" t="s">
+      <c r="C31" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
       <c r="J31" s="24"/>
     </row>
     <row r="32" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7606,16 +7627,16 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="11"/>
-      <c r="K34" s="149" t="s">
+      <c r="K34" s="153" t="s">
         <v>180</v>
       </c>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="136"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="136"/>
-      <c r="Q34" s="136"/>
-      <c r="R34" s="137"/>
+      <c r="L34" s="131"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="131"/>
+      <c r="P34" s="131"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="132"/>
     </row>
     <row r="35" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="13" t="s">
@@ -7628,16 +7649,16 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15"/>
-      <c r="K35" s="150" t="s">
+      <c r="K35" s="154" t="s">
         <v>181</v>
       </c>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="134"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="126"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="1"/>
@@ -7677,16 +7698,16 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="7"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="7"/>
@@ -7894,134 +7915,134 @@
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B56" s="152" t="s">
+      <c r="B56" s="156" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="153"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="153"/>
-      <c r="F56" s="153"/>
-      <c r="G56" s="153"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="139" t="s">
+      <c r="C56" s="157"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="157"/>
+      <c r="H56" s="158"/>
+      <c r="I56" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="J56" s="139"/>
+      <c r="J56" s="134"/>
       <c r="L56" s="86"/>
-      <c r="M56" s="155" t="s">
+      <c r="M56" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="N56" s="155"/>
-      <c r="O56" s="155"/>
+      <c r="N56" s="145"/>
+      <c r="O56" s="145"/>
       <c r="P56" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="Q56" s="155" t="s">
+      <c r="Q56" s="145" t="s">
         <v>212</v>
       </c>
-      <c r="R56" s="155"/>
-      <c r="S56" s="155"/>
-      <c r="T56" s="155"/>
+      <c r="R56" s="145"/>
+      <c r="S56" s="145"/>
+      <c r="T56" s="145"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="139"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="139"/>
-      <c r="F57" s="139"/>
-      <c r="G57" s="139"/>
-      <c r="H57" s="139"/>
-      <c r="I57" s="139"/>
-      <c r="J57" s="139"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="134"/>
       <c r="L57" s="86"/>
-      <c r="M57" s="155" t="s">
+      <c r="M57" s="145" t="s">
         <v>214</v>
       </c>
-      <c r="N57" s="155"/>
-      <c r="O57" s="155"/>
+      <c r="N57" s="145"/>
+      <c r="O57" s="145"/>
       <c r="P57" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="Q57" s="155" t="s">
+      <c r="Q57" s="145" t="s">
         <v>214</v>
       </c>
-      <c r="R57" s="155"/>
-      <c r="S57" s="155"/>
-      <c r="T57" s="155"/>
+      <c r="R57" s="145"/>
+      <c r="S57" s="145"/>
+      <c r="T57" s="145"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B58" s="151" t="s">
+      <c r="B58" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="151"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="151"/>
-      <c r="F58" s="151"/>
-      <c r="G58" s="151"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="139" t="s">
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="J58" s="139"/>
+      <c r="J58" s="134"/>
       <c r="L58" s="86"/>
-      <c r="M58" s="155" t="s">
+      <c r="M58" s="145" t="s">
         <v>217</v>
       </c>
-      <c r="N58" s="155"/>
-      <c r="O58" s="155"/>
+      <c r="N58" s="145"/>
+      <c r="O58" s="145"/>
       <c r="P58" s="87">
         <v>2</v>
       </c>
-      <c r="Q58" s="155" t="s">
+      <c r="Q58" s="145" t="s">
         <v>215</v>
       </c>
-      <c r="R58" s="155"/>
-      <c r="S58" s="155"/>
-      <c r="T58" s="155"/>
+      <c r="R58" s="145"/>
+      <c r="S58" s="145"/>
+      <c r="T58" s="145"/>
     </row>
     <row r="59" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="151" t="s">
+      <c r="B59" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="151"/>
-      <c r="D59" s="151"/>
-      <c r="E59" s="151"/>
-      <c r="F59" s="151"/>
-      <c r="G59" s="151"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="139" t="s">
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="155"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="155"/>
+      <c r="I59" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="139"/>
-      <c r="M59" s="156" t="s">
+      <c r="J59" s="134"/>
+      <c r="M59" s="149" t="s">
         <v>218</v>
       </c>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
+      <c r="N59" s="149"/>
+      <c r="O59" s="149"/>
       <c r="P59" s="87">
         <v>5</v>
       </c>
-      <c r="Q59" s="155" t="s">
+      <c r="Q59" s="145" t="s">
         <v>219</v>
       </c>
-      <c r="R59" s="155"/>
-      <c r="S59" s="155"/>
-      <c r="T59" s="155"/>
+      <c r="R59" s="145"/>
+      <c r="S59" s="145"/>
+      <c r="T59" s="145"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B60" s="135" t="s">
+      <c r="B60" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="136"/>
-      <c r="G60" s="136"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="135"/>
-      <c r="J60" s="145"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
+      <c r="F60" s="131"/>
+      <c r="G60" s="131"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="146"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B61" s="1"/>
@@ -8070,10 +8091,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B65" s="90"/>
-      <c r="C65" s="135" t="s">
+      <c r="C65" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="D65" s="145"/>
+      <c r="D65" s="146"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -8085,10 +8106,10 @@
       <c r="B66" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="143" t="s">
+      <c r="C66" s="147" t="s">
         <v>224</v>
       </c>
-      <c r="D66" s="144"/>
+      <c r="D66" s="148"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -8100,10 +8121,10 @@
       <c r="B67" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="C67" s="143" t="s">
+      <c r="C67" s="147" t="s">
         <v>233</v>
       </c>
-      <c r="D67" s="144"/>
+      <c r="D67" s="148"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -9050,21 +9071,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="Q57:T57"/>
-    <mergeCell ref="Q58:T58"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="J20:N20"/>
     <mergeCell ref="J21:N21"/>
@@ -9081,6 +9087,21 @@
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="C39:L39"/>
     <mergeCell ref="M56:O56"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="Q57:T57"/>
+    <mergeCell ref="Q58:T58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9346,15 +9367,15 @@
       <c r="I7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="157" t="s">
+      <c r="J7" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="159"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="161"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="19"/>
       <c r="S7" s="74"/>
@@ -9750,10 +9771,10 @@
       <c r="AD16" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="AE16" s="107" t="s">
+      <c r="AE16" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="AF16" s="107"/>
+      <c r="AF16" s="114"/>
       <c r="AG16" s="72"/>
       <c r="AH16" s="72"/>
       <c r="AI16" s="72"/>
@@ -9794,11 +9815,11 @@
       <c r="AD17" s="72">
         <v>10</v>
       </c>
-      <c r="AE17" s="107">
+      <c r="AE17" s="114">
         <f>10*AD17</f>
         <v>100</v>
       </c>
-      <c r="AF17" s="107"/>
+      <c r="AF17" s="114"/>
       <c r="AG17" s="72"/>
       <c r="AH17" s="72"/>
       <c r="AI17" s="72"/>
@@ -10376,10 +10397,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFA2812-7629-4D41-B60B-81D3901BF4BE}">
-  <dimension ref="B1:Q39"/>
+  <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10394,11 +10415,11 @@
       <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="161" t="s">
+      <c r="K2" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
@@ -10424,12 +10445,12 @@
       <c r="I3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="163" t="s">
+      <c r="K3" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="164"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="168"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
@@ -10456,10 +10477,10 @@
       <c r="I4" s="6">
         <v>28</v>
       </c>
-      <c r="K4" s="163"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="164"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="168"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
@@ -10486,10 +10507,10 @@
       <c r="I5" s="6">
         <v>4</v>
       </c>
-      <c r="K5" s="163"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="164"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="168"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
@@ -10516,616 +10537,676 @@
       <c r="I6" s="22">
         <v>11</v>
       </c>
-      <c r="K6" s="163"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="164"/>
-    </row>
-    <row r="7" spans="2:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K7" s="163"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="164"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="168"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="106" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="22">
+        <v>12</v>
+      </c>
+      <c r="D7" s="106">
+        <v>13</v>
+      </c>
+      <c r="E7" s="106">
+        <v>14</v>
+      </c>
+      <c r="F7" s="106">
+        <v>15</v>
+      </c>
+      <c r="G7" s="175">
+        <v>16</v>
+      </c>
+      <c r="H7" s="175">
+        <v>17</v>
+      </c>
+      <c r="I7" s="175">
+        <v>18</v>
+      </c>
+      <c r="K7" s="166"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="168"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="106" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="175">
+        <v>19</v>
+      </c>
+      <c r="D8" s="106">
+        <v>20</v>
+      </c>
+      <c r="E8" s="106">
+        <v>21</v>
+      </c>
+      <c r="F8" s="106">
+        <v>22</v>
+      </c>
+      <c r="G8" s="175">
+        <v>23</v>
+      </c>
+      <c r="H8" s="175">
+        <v>24</v>
+      </c>
+      <c r="I8" s="175"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="168"/>
+    </row>
+    <row r="9" spans="2:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K9" s="166"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="168"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C10" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="145"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="164"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B9" s="23">
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="146"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="168"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B11" s="23">
         <v>22</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C11" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="145"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="160"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="164"/>
-    </row>
-    <row r="10" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="23">
-        <v>23</v>
-      </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="145"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="167"/>
-    </row>
-    <row r="11" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="23">
-        <v>24</v>
-      </c>
-      <c r="C11" s="135" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="145"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="146"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="168"/>
     </row>
     <row r="12" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="23">
+        <v>23</v>
+      </c>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="146"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="171"/>
+    </row>
+    <row r="13" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="23">
+        <v>24</v>
+      </c>
+      <c r="C13" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="146"/>
+    </row>
+    <row r="14" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="23">
         <v>25</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="145"/>
-      <c r="K12" s="161" t="s">
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="146"/>
+      <c r="K14" s="164" t="s">
         <v>249</v>
       </c>
-      <c r="L12" s="162"/>
-      <c r="M12" s="168"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B13" s="23">
-        <v>26</v>
-      </c>
-      <c r="C13" s="135" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="145"/>
-      <c r="K13" s="169" t="s">
-        <v>243</v>
-      </c>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="99" t="s">
-        <v>242</v>
-      </c>
-      <c r="P13" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="121"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="23">
-        <v>27</v>
-      </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="145"/>
-      <c r="K14" s="170" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="137"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="172"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="23">
-        <v>28</v>
-      </c>
-      <c r="C15" s="135" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="145"/>
-      <c r="K15" s="170" t="s">
-        <v>240</v>
-      </c>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="137"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="146"/>
+      <c r="K15" s="173" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="P15" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="129"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="23">
-        <v>29</v>
-      </c>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="145"/>
-      <c r="K16" s="149" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="137"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="146"/>
+      <c r="K16" s="174" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="132"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B17" s="23">
-        <v>30</v>
-      </c>
-      <c r="C17" s="135" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="145"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="139" t="s">
-        <v>245</v>
-      </c>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
+        <v>28</v>
+      </c>
+      <c r="C17" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="146"/>
+      <c r="K17" s="174" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
       <c r="O17" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="137"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="132"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="23">
-        <v>31</v>
-      </c>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="145"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="139" t="s">
-        <v>246</v>
-      </c>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="137"/>
+        <v>29</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="146"/>
+      <c r="K18" s="153" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="132"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" s="23">
-        <v>1</v>
-      </c>
-      <c r="C19" s="135" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="145"/>
+        <v>30</v>
+      </c>
+      <c r="C19" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="146"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="139" t="s">
-        <v>247</v>
-      </c>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="137"/>
+      <c r="L19" s="134" t="s">
+        <v>245</v>
+      </c>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="132"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B20" s="23">
-        <v>2</v>
-      </c>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="145"/>
+        <v>31</v>
+      </c>
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="146"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="139" t="s">
-        <v>248</v>
-      </c>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
+      <c r="L20" s="134" t="s">
+        <v>246</v>
+      </c>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
       <c r="O20" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="137"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="132"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" s="23">
-        <v>3</v>
-      </c>
-      <c r="C21" s="135" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="145"/>
-      <c r="K21" s="149" t="s">
-        <v>244</v>
-      </c>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="137"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="146"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="134" t="s">
+        <v>247</v>
+      </c>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="132"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" s="23">
-        <v>4</v>
-      </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="145"/>
+        <v>2</v>
+      </c>
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="146"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="139" t="s">
-        <v>254</v>
-      </c>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
+      <c r="L22" s="134" t="s">
+        <v>248</v>
+      </c>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
       <c r="O22" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="137"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="132"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="23">
-        <v>5</v>
-      </c>
-      <c r="C23" s="135"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="145"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="139" t="s">
-        <v>252</v>
-      </c>
-      <c r="M23" s="139"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="137"/>
+        <v>3</v>
+      </c>
+      <c r="C23" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="146"/>
+      <c r="K23" s="153" t="s">
+        <v>244</v>
+      </c>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="132"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="23">
-        <v>6</v>
-      </c>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="145"/>
+        <v>4</v>
+      </c>
+      <c r="C24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="146"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="139" t="s">
-        <v>255</v>
-      </c>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
+      <c r="L24" s="134" t="s">
+        <v>254</v>
+      </c>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
       <c r="O24" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="137"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="132"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B25" s="23"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
+      <c r="B25" s="23">
+        <v>5</v>
+      </c>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="146"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="139" t="s">
-        <v>253</v>
-      </c>
-      <c r="M25" s="139"/>
-      <c r="N25" s="139"/>
+      <c r="L25" s="134" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
       <c r="O25" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="137"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="132"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B26" s="23"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
+      <c r="B26" s="23">
+        <v>6</v>
+      </c>
+      <c r="C26" s="130"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="146"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="139" t="s">
-        <v>256</v>
-      </c>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
+      <c r="L26" s="134" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
       <c r="O26" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="137"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="132"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" s="23">
         <v>7</v>
       </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="145"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="102"/>
       <c r="K27" s="52"/>
-      <c r="L27" s="139" t="s">
-        <v>257</v>
-      </c>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
+      <c r="L27" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
       <c r="O27" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="137"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="132"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="23">
         <v>8</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="145"/>
-      <c r="K28" s="149" t="s">
-        <v>251</v>
-      </c>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="137"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="102"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="134" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="132"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B29" s="23">
+        <v>13</v>
+      </c>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="146"/>
       <c r="K29" s="52"/>
-      <c r="L29" s="139" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
+      <c r="L29" s="134" t="s">
+        <v>257</v>
+      </c>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
       <c r="O29" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="137"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="132"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="K30" s="52"/>
-      <c r="L30" s="139" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="P30" s="135"/>
-      <c r="Q30" s="137"/>
+      <c r="B30" s="23">
+        <v>14</v>
+      </c>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="146"/>
+      <c r="K30" s="153" t="s">
+        <v>251</v>
+      </c>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="132"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K31" s="52"/>
-      <c r="L31" s="139" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
+      <c r="L31" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
       <c r="O31" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="137"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="132"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K32" s="52"/>
-      <c r="L32" s="139" t="s">
-        <v>232</v>
-      </c>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="137"/>
+      <c r="L32" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="132"/>
     </row>
     <row r="33" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K33" s="52"/>
-      <c r="L33" s="139" t="s">
-        <v>245</v>
-      </c>
-      <c r="M33" s="139"/>
-      <c r="N33" s="139"/>
+      <c r="L33" s="134" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
       <c r="O33" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="137"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="132"/>
     </row>
     <row r="34" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K34" s="52"/>
-      <c r="L34" s="139" t="s">
-        <v>246</v>
-      </c>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="P34" s="135"/>
-      <c r="Q34" s="137"/>
+      <c r="L34" s="134" t="s">
+        <v>232</v>
+      </c>
+      <c r="M34" s="134"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="130"/>
+      <c r="Q34" s="132"/>
     </row>
     <row r="35" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K35" s="52"/>
-      <c r="L35" s="139" t="s">
-        <v>247</v>
-      </c>
-      <c r="M35" s="139"/>
-      <c r="N35" s="139"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="135"/>
-      <c r="Q35" s="137"/>
+      <c r="L35" s="134" t="s">
+        <v>245</v>
+      </c>
+      <c r="M35" s="134"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="132"/>
     </row>
     <row r="36" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K36" s="52"/>
-      <c r="L36" s="139" t="s">
-        <v>248</v>
-      </c>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
+      <c r="L36" s="134" t="s">
+        <v>246</v>
+      </c>
+      <c r="M36" s="134"/>
+      <c r="N36" s="134"/>
       <c r="O36" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P36" s="135"/>
-      <c r="Q36" s="137"/>
+      <c r="P36" s="130"/>
+      <c r="Q36" s="132"/>
     </row>
     <row r="37" spans="11:17" x14ac:dyDescent="0.4">
-      <c r="K37" s="149" t="s">
-        <v>258</v>
-      </c>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="136"/>
-      <c r="Q37" s="137"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="134" t="s">
+        <v>247</v>
+      </c>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="130"/>
+      <c r="Q37" s="132"/>
     </row>
     <row r="38" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K38" s="52"/>
-      <c r="L38" s="135" t="s">
+      <c r="L38" s="134" t="s">
+        <v>248</v>
+      </c>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P38" s="130"/>
+      <c r="Q38" s="132"/>
+    </row>
+    <row r="39" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K39" s="153" t="s">
+        <v>258</v>
+      </c>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="131"/>
+      <c r="Q39" s="132"/>
+    </row>
+    <row r="40" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K40" s="52"/>
+      <c r="L40" s="130" t="s">
         <v>259</v>
       </c>
-      <c r="M38" s="136"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="P38" s="139" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q38" s="171"/>
-    </row>
-    <row r="39" spans="11:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K39" s="54"/>
-      <c r="L39" s="116" t="s">
+      <c r="M40" s="131"/>
+      <c r="N40" s="146"/>
+      <c r="O40" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P40" s="134"/>
+      <c r="Q40" s="162"/>
+    </row>
+    <row r="41" spans="11:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K41" s="54"/>
+      <c r="L41" s="124" t="s">
         <v>260</v>
       </c>
-      <c r="M39" s="117"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="138"/>
-      <c r="Q39" s="172"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="138"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="133"/>
+      <c r="Q41" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:N12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P36:Q36"/>
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="K23:Q23"/>
     <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L24:N24"/>
     <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="L20:N20"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:N10"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/맵생성규칙기획서.xlsx
+++ b/Design/맵생성규칙기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E23BC8-3067-4213-A579-FFC99CA1A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF12ECA-5368-46F9-A85B-4808C68E4F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VerCon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="266">
   <si>
     <t>Version Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2119,6 +2119,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2130,12 +2137,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2154,12 +2179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -2170,34 +2190,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2207,11 +2202,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2235,7 +2234,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6737,7 +6737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -6749,24 +6749,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="108"/>
+      <c r="B1" s="115"/>
       <c r="C1" s="8"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="107"/>
+      <c r="B2" s="114"/>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -6796,12 +6796,12 @@
         <v>33</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="111"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
@@ -6814,12 +6814,12 @@
         <v>34</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
@@ -6832,10 +6832,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
@@ -6864,12 +6864,12 @@
         <v>70</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="109"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="21" t="s">
@@ -6882,12 +6882,12 @@
         <v>73</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="112" t="s">
+      <c r="G9" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="113"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="109"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="26" t="s">
@@ -6900,12 +6900,12 @@
         <v>93</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
@@ -6918,12 +6918,12 @@
         <v>168</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
@@ -6951,12 +6951,12 @@
         <v>178</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -6970,11 +6970,11 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="112" t="s">
+      <c r="H14" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="109"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
@@ -6986,11 +6986,11 @@
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="112" t="s">
+      <c r="H15" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="112"/>
-      <c r="J15" s="113"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="109"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
@@ -6999,10 +6999,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="113"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
@@ -7079,6 +7079,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G13:J13"/>
@@ -7088,11 +7093,6 @@
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7191,14 +7191,14 @@
       <c r="F6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="142" t="s">
+      <c r="G6" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="144"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
       <c r="M6" s="62"/>
       <c r="O6" s="80" t="s">
         <v>10</v>
@@ -7217,14 +7217,14 @@
       <c r="F7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="142" t="s">
+      <c r="G7" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="144"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="130"/>
       <c r="M7" s="63"/>
       <c r="O7" s="85" t="s">
         <v>12</v>
@@ -7239,14 +7239,14 @@
       <c r="F8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="141"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="127"/>
       <c r="M8" s="65"/>
       <c r="O8" s="85" t="s">
         <v>13</v>
@@ -7270,153 +7270,153 @@
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="121" t="s">
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="123"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="136"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="129"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="124"/>
     </row>
     <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="119"/>
-      <c r="C15" s="124" t="s">
+      <c r="B15" s="132"/>
+      <c r="C15" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="124" t="s">
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="126"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="137"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="129"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="124"/>
     </row>
     <row r="17" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="119"/>
-      <c r="C17" s="133" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="124" t="s">
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="126"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="137"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="129"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="124"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="120"/>
-      <c r="C19" s="134" t="s">
+      <c r="B19" s="133"/>
+      <c r="C19" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="132"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="140"/>
     </row>
     <row r="20" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="119"/>
-      <c r="C20" s="133" t="s">
+      <c r="B20" s="132"/>
+      <c r="C20" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
       <c r="J20" s="3" t="s">
         <v>29</v>
       </c>
@@ -7429,11 +7429,6 @@
     <row r="23" spans="2:15" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G6:L6"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B20"/>
@@ -7450,6 +7445,11 @@
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7480,49 +7480,49 @@
       <c r="I20" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="130" t="s">
+      <c r="J20" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="146"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="148"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I21" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="130" t="s">
+      <c r="J21" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="146"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="148"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I22" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="150" t="s">
+      <c r="J22" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="152"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="151"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="I23" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="150" t="s">
+      <c r="J23" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="152"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="151"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
@@ -7554,45 +7554,45 @@
       <c r="B30" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="134" t="s">
+      <c r="C30" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
       <c r="J30" s="24"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="134" t="s">
+      <c r="C31" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
       <c r="J31" s="24"/>
     </row>
     <row r="32" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="134" t="s">
+      <c r="C32" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7627,16 +7627,16 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="11"/>
-      <c r="K34" s="153" t="s">
+      <c r="K34" s="152" t="s">
         <v>180</v>
       </c>
-      <c r="L34" s="131"/>
-      <c r="M34" s="131"/>
-      <c r="N34" s="131"/>
-      <c r="O34" s="131"/>
-      <c r="P34" s="131"/>
-      <c r="Q34" s="131"/>
-      <c r="R34" s="132"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="139"/>
+      <c r="Q34" s="139"/>
+      <c r="R34" s="140"/>
     </row>
     <row r="35" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="13" t="s">
@@ -7649,16 +7649,16 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15"/>
-      <c r="K35" s="154" t="s">
+      <c r="K35" s="153" t="s">
         <v>181</v>
       </c>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="125"/>
-      <c r="R35" s="126"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="137"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="1"/>
@@ -7698,16 +7698,16 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B39" s="7"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B40" s="7"/>
@@ -7915,134 +7915,134 @@
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B56" s="156" t="s">
+      <c r="B56" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="158"/>
-      <c r="I56" s="134" t="s">
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="157"/>
+      <c r="I56" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="J56" s="134"/>
+      <c r="J56" s="142"/>
       <c r="L56" s="86"/>
-      <c r="M56" s="145" t="s">
+      <c r="M56" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="N56" s="145"/>
-      <c r="O56" s="145"/>
+      <c r="N56" s="158"/>
+      <c r="O56" s="158"/>
       <c r="P56" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="Q56" s="145" t="s">
+      <c r="Q56" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="R56" s="145"/>
-      <c r="S56" s="145"/>
-      <c r="T56" s="145"/>
+      <c r="R56" s="158"/>
+      <c r="S56" s="158"/>
+      <c r="T56" s="158"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B57" s="134" t="s">
+      <c r="B57" s="142" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="134"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="J57" s="142"/>
       <c r="L57" s="86"/>
-      <c r="M57" s="145" t="s">
+      <c r="M57" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="N57" s="145"/>
-      <c r="O57" s="145"/>
+      <c r="N57" s="158"/>
+      <c r="O57" s="158"/>
       <c r="P57" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="Q57" s="145" t="s">
+      <c r="Q57" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="R57" s="145"/>
-      <c r="S57" s="145"/>
-      <c r="T57" s="145"/>
+      <c r="R57" s="158"/>
+      <c r="S57" s="158"/>
+      <c r="T57" s="158"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B58" s="155" t="s">
+      <c r="B58" s="154" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="134" t="s">
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="154"/>
+      <c r="G58" s="154"/>
+      <c r="H58" s="154"/>
+      <c r="I58" s="142" t="s">
         <v>171</v>
       </c>
-      <c r="J58" s="134"/>
+      <c r="J58" s="142"/>
       <c r="L58" s="86"/>
-      <c r="M58" s="145" t="s">
+      <c r="M58" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="N58" s="145"/>
-      <c r="O58" s="145"/>
+      <c r="N58" s="158"/>
+      <c r="O58" s="158"/>
       <c r="P58" s="87">
         <v>2</v>
       </c>
-      <c r="Q58" s="145" t="s">
+      <c r="Q58" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="R58" s="145"/>
-      <c r="S58" s="145"/>
-      <c r="T58" s="145"/>
+      <c r="R58" s="158"/>
+      <c r="S58" s="158"/>
+      <c r="T58" s="158"/>
     </row>
     <row r="59" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="155" t="s">
+      <c r="B59" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
-      <c r="I59" s="134" t="s">
+      <c r="C59" s="154"/>
+      <c r="D59" s="154"/>
+      <c r="E59" s="154"/>
+      <c r="F59" s="154"/>
+      <c r="G59" s="154"/>
+      <c r="H59" s="154"/>
+      <c r="I59" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="J59" s="134"/>
-      <c r="M59" s="149" t="s">
+      <c r="J59" s="142"/>
+      <c r="M59" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="N59" s="149"/>
-      <c r="O59" s="149"/>
+      <c r="N59" s="159"/>
+      <c r="O59" s="159"/>
       <c r="P59" s="87">
         <v>5</v>
       </c>
-      <c r="Q59" s="145" t="s">
+      <c r="Q59" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="R59" s="145"/>
-      <c r="S59" s="145"/>
-      <c r="T59" s="145"/>
+      <c r="R59" s="158"/>
+      <c r="S59" s="158"/>
+      <c r="T59" s="158"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B60" s="130" t="s">
+      <c r="B60" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="146"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="148"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B61" s="1"/>
@@ -8091,10 +8091,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B65" s="90"/>
-      <c r="C65" s="130" t="s">
+      <c r="C65" s="138" t="s">
         <v>225</v>
       </c>
-      <c r="D65" s="146"/>
+      <c r="D65" s="148"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -8106,10 +8106,10 @@
       <c r="B66" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="147" t="s">
+      <c r="C66" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="D66" s="148"/>
+      <c r="D66" s="147"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -8121,10 +8121,10 @@
       <c r="B67" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="C67" s="147" t="s">
+      <c r="C67" s="146" t="s">
         <v>233</v>
       </c>
-      <c r="D67" s="148"/>
+      <c r="D67" s="147"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -9071,6 +9071,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="Q59:T59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="Q57:T57"/>
+    <mergeCell ref="Q58:T58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="J20:N20"/>
     <mergeCell ref="J21:N21"/>
@@ -9087,21 +9102,6 @@
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="C39:L39"/>
     <mergeCell ref="M56:O56"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="Q59:T59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="Q57:T57"/>
-    <mergeCell ref="Q58:T58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9367,15 +9367,15 @@
       <c r="I7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="159" t="s">
+      <c r="J7" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="162"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="19"/>
       <c r="S7" s="74"/>
@@ -9771,10 +9771,10 @@
       <c r="AD16" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="AE16" s="114" t="s">
+      <c r="AE16" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="AF16" s="114"/>
+      <c r="AF16" s="110"/>
       <c r="AG16" s="72"/>
       <c r="AH16" s="72"/>
       <c r="AI16" s="72"/>
@@ -9815,11 +9815,11 @@
       <c r="AD17" s="72">
         <v>10</v>
       </c>
-      <c r="AE17" s="114">
+      <c r="AE17" s="110">
         <f>10*AD17</f>
         <v>100</v>
       </c>
-      <c r="AF17" s="114"/>
+      <c r="AF17" s="110"/>
       <c r="AG17" s="72"/>
       <c r="AH17" s="72"/>
       <c r="AI17" s="72"/>
@@ -10399,8 +10399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFA2812-7629-4D41-B60B-81D3901BF4BE}">
   <dimension ref="B1:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:F25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10415,11 +10415,11 @@
       <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="164" t="s">
+      <c r="K2" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
@@ -10445,12 +10445,12 @@
       <c r="I3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="166" t="s">
+      <c r="K3" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="167"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
@@ -10477,10 +10477,10 @@
       <c r="I4" s="6">
         <v>28</v>
       </c>
-      <c r="K4" s="166"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="168"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="167"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
@@ -10507,10 +10507,10 @@
       <c r="I5" s="6">
         <v>4</v>
       </c>
-      <c r="K5" s="166"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="168"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="167"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
@@ -10537,10 +10537,10 @@
       <c r="I6" s="22">
         <v>11</v>
       </c>
-      <c r="K6" s="166"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="168"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="167"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="106" t="s">
@@ -10558,25 +10558,25 @@
       <c r="F7" s="106">
         <v>15</v>
       </c>
-      <c r="G7" s="175">
+      <c r="G7" s="107">
         <v>16</v>
       </c>
-      <c r="H7" s="175">
+      <c r="H7" s="107">
         <v>17</v>
       </c>
-      <c r="I7" s="175">
+      <c r="I7" s="107">
         <v>18</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="168"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="167"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="106" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="175">
+      <c r="C8" s="107">
         <v>19</v>
       </c>
       <c r="D8" s="106">
@@ -10588,337 +10588,339 @@
       <c r="F8" s="106">
         <v>22</v>
       </c>
-      <c r="G8" s="175">
+      <c r="G8" s="107">
         <v>23</v>
       </c>
-      <c r="H8" s="175">
+      <c r="H8" s="107">
         <v>24</v>
       </c>
-      <c r="I8" s="175"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="168"/>
+      <c r="I8" s="107"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="167"/>
     </row>
     <row r="9" spans="2:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K9" s="166"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="168"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="167"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="146"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="168"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="148"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="167"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="23">
         <v>22</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="146"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="168"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="148"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="167"/>
     </row>
     <row r="12" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="23">
         <v>23</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="146"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="171"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="148"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="170"/>
     </row>
     <row r="13" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="23">
         <v>24</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="146"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="148"/>
     </row>
     <row r="14" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="23">
         <v>25</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="146"/>
-      <c r="K14" s="164" t="s">
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="148"/>
+      <c r="K14" s="163" t="s">
         <v>249</v>
       </c>
-      <c r="L14" s="165"/>
-      <c r="M14" s="172"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="171"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="23">
         <v>26</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="146"/>
-      <c r="K15" s="173" t="s">
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="148"/>
+      <c r="K15" s="172" t="s">
         <v>243</v>
       </c>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
       <c r="O15" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="P15" s="127" t="s">
+      <c r="P15" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="129"/>
+      <c r="Q15" s="124"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="23">
         <v>27</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="146"/>
-      <c r="K16" s="174" t="s">
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="148"/>
+      <c r="K16" s="173" t="s">
         <v>241</v>
       </c>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
       <c r="O16" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="132"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="140"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B17" s="23">
         <v>28</v>
       </c>
-      <c r="C17" s="130" t="s">
+      <c r="C17" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="146"/>
-      <c r="K17" s="174" t="s">
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="148"/>
+      <c r="K17" s="173" t="s">
         <v>240</v>
       </c>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
       <c r="O17" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="132"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="140"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="23">
         <v>29</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="146"/>
-      <c r="K18" s="153" t="s">
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="148"/>
+      <c r="K18" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="132"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="140"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" s="23">
         <v>30</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="146"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="148"/>
       <c r="K19" s="52"/>
-      <c r="L19" s="134" t="s">
+      <c r="L19" s="142" t="s">
         <v>245</v>
       </c>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
       <c r="O19" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="132"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="140"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B20" s="23">
         <v>31</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="146"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="148"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="134" t="s">
+      <c r="L20" s="142" t="s">
         <v>246</v>
       </c>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
       <c r="O20" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="132"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="140"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" s="23">
         <v>1</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="146"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="148"/>
       <c r="K21" s="52"/>
-      <c r="L21" s="134" t="s">
+      <c r="L21" s="142" t="s">
         <v>247</v>
       </c>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="132"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="140"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" s="23">
         <v>2</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="146"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="148"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="134" t="s">
+      <c r="L22" s="142" t="s">
         <v>248</v>
       </c>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
       <c r="O22" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="132"/>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="140"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="23">
         <v>3</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="146"/>
-      <c r="K23" s="153" t="s">
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="148"/>
+      <c r="K23" s="152" t="s">
         <v>244</v>
       </c>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="132"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="140"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="23">
         <v>4</v>
       </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="146"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="148"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="134" t="s">
+      <c r="L24" s="142" t="s">
         <v>254</v>
       </c>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
       <c r="O24" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="132"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="140"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" s="23">
         <v>5</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="146"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="148"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="134" t="s">
+      <c r="L25" s="142" t="s">
         <v>252</v>
       </c>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
       <c r="O25" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="132"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="140"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" s="23">
         <v>6</v>
       </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="146"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="148"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="134" t="s">
+      <c r="L26" s="142" t="s">
         <v>255</v>
       </c>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
       <c r="O26" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="132"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="140"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" s="23">
@@ -10929,16 +10931,16 @@
       <c r="E27" s="101"/>
       <c r="F27" s="102"/>
       <c r="K27" s="52"/>
-      <c r="L27" s="134" t="s">
+      <c r="L27" s="142" t="s">
         <v>253</v>
       </c>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="142"/>
       <c r="O27" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="132"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="140"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="23">
@@ -10949,202 +10951,245 @@
       <c r="E28" s="101"/>
       <c r="F28" s="102"/>
       <c r="K28" s="52"/>
-      <c r="L28" s="134" t="s">
+      <c r="L28" s="142" t="s">
         <v>256</v>
       </c>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="142"/>
       <c r="O28" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="132"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="140"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" s="23">
         <v>13</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="146"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="148"/>
       <c r="K29" s="52"/>
-      <c r="L29" s="134" t="s">
+      <c r="L29" s="142" t="s">
         <v>257</v>
       </c>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="142"/>
       <c r="O29" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="132"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="140"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B30" s="23">
         <v>14</v>
       </c>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="146"/>
-      <c r="K30" s="153" t="s">
+      <c r="C30" s="138"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="148"/>
+      <c r="K30" s="152" t="s">
         <v>251</v>
       </c>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="132"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="140"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K31" s="52"/>
-      <c r="L31" s="134" t="s">
+      <c r="L31" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
       <c r="O31" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="132"/>
+      <c r="P31" s="138"/>
+      <c r="Q31" s="140"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K32" s="52"/>
-      <c r="L32" s="134" t="s">
+      <c r="L32" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
       <c r="O32" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="132"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="140"/>
     </row>
     <row r="33" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K33" s="52"/>
-      <c r="L33" s="134" t="s">
+      <c r="L33" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="142"/>
       <c r="O33" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="132"/>
+      <c r="P33" s="138"/>
+      <c r="Q33" s="140"/>
     </row>
     <row r="34" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K34" s="52"/>
-      <c r="L34" s="134" t="s">
+      <c r="L34" s="142" t="s">
         <v>232</v>
       </c>
-      <c r="M34" s="134"/>
-      <c r="N34" s="134"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="132"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="140"/>
     </row>
     <row r="35" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K35" s="52"/>
-      <c r="L35" s="134" t="s">
+      <c r="L35" s="142" t="s">
         <v>245</v>
       </c>
-      <c r="M35" s="134"/>
-      <c r="N35" s="134"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
       <c r="O35" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P35" s="130"/>
-      <c r="Q35" s="132"/>
+      <c r="P35" s="138"/>
+      <c r="Q35" s="140"/>
     </row>
     <row r="36" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K36" s="52"/>
-      <c r="L36" s="134" t="s">
+      <c r="L36" s="142" t="s">
         <v>246</v>
       </c>
-      <c r="M36" s="134"/>
-      <c r="N36" s="134"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="142"/>
       <c r="O36" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P36" s="130"/>
-      <c r="Q36" s="132"/>
+      <c r="P36" s="138"/>
+      <c r="Q36" s="140"/>
     </row>
     <row r="37" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K37" s="52"/>
-      <c r="L37" s="134" t="s">
+      <c r="L37" s="142" t="s">
         <v>247</v>
       </c>
-      <c r="M37" s="134"/>
-      <c r="N37" s="134"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="130"/>
-      <c r="Q37" s="132"/>
+      <c r="M37" s="142"/>
+      <c r="N37" s="142"/>
+      <c r="O37" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="P37" s="138"/>
+      <c r="Q37" s="140"/>
     </row>
     <row r="38" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K38" s="52"/>
-      <c r="L38" s="134" t="s">
+      <c r="L38" s="142" t="s">
         <v>248</v>
       </c>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
+      <c r="M38" s="142"/>
+      <c r="N38" s="142"/>
       <c r="O38" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P38" s="130"/>
-      <c r="Q38" s="132"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="140"/>
     </row>
     <row r="39" spans="11:17" x14ac:dyDescent="0.4">
-      <c r="K39" s="153" t="s">
+      <c r="K39" s="152" t="s">
         <v>258</v>
       </c>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="131"/>
-      <c r="P39" s="131"/>
-      <c r="Q39" s="132"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="139"/>
+      <c r="N39" s="139"/>
+      <c r="O39" s="139"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="140"/>
     </row>
     <row r="40" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K40" s="52"/>
-      <c r="L40" s="130" t="s">
+      <c r="L40" s="138" t="s">
         <v>259</v>
       </c>
-      <c r="M40" s="131"/>
-      <c r="N40" s="146"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="148"/>
       <c r="O40" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="P40" s="134"/>
-      <c r="Q40" s="162"/>
+      <c r="P40" s="142"/>
+      <c r="Q40" s="174"/>
     </row>
     <row r="41" spans="11:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K41" s="54"/>
-      <c r="L41" s="124" t="s">
+      <c r="L41" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="M41" s="125"/>
-      <c r="N41" s="138"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="133"/>
-      <c r="Q41" s="163"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="121"/>
+      <c r="O41" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="P41" s="141"/>
+      <c r="Q41" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:N12"/>
@@ -11160,53 +11205,16 @@
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="K17:N17"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
